--- a/Documentacion/Plantilla Historias Usuario - Oficina de Proyectos de Informatica.xlsx
+++ b/Documentacion/Plantilla Historias Usuario - Oficina de Proyectos de Informatica.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Progrmacion de software\Tecnica\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USUARIO\Documents\Proyectos\E-vote\E-vote-Backend\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AD9586-C288-415C-A8CD-5237910FE2E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1772,7 +1771,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -2090,6 +2089,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2102,13 +2116,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2125,22 +2140,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2170,7 +2169,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{BD0069A0-5ABA-40A0-887E-F18B56616EDE}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2482,11 +2481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F176" sqref="F176"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2603,18 +2602,18 @@
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="46" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2680,16 +2679,16 @@
     </row>
     <row r="6" spans="1:26" ht="58.15" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="17">
@@ -2726,10 +2725,10 @@
     </row>
     <row r="7" spans="1:26" ht="57" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="17">
         <v>2</v>
       </c>
@@ -2764,10 +2763,10 @@
     </row>
     <row r="8" spans="1:26" ht="131.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="17">
         <v>3</v>
       </c>
@@ -2830,16 +2829,16 @@
     </row>
     <row r="10" spans="1:26" ht="45">
       <c r="A10" s="1"/>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="44" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="5">
@@ -2876,10 +2875,10 @@
     </row>
     <row r="11" spans="1:26" ht="52.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="5">
         <v>2</v>
       </c>
@@ -2914,10 +2913,10 @@
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="10">
         <v>3</v>
       </c>
@@ -2952,10 +2951,10 @@
     </row>
     <row r="13" spans="1:26" ht="49.9" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="10">
         <v>4</v>
       </c>
@@ -3018,16 +3017,16 @@
     </row>
     <row r="15" spans="1:26" ht="111" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="44" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="5">
@@ -3064,10 +3063,10 @@
     </row>
     <row r="16" spans="1:26" ht="45">
       <c r="A16" s="1"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="10">
         <v>2</v>
       </c>
@@ -3102,10 +3101,10 @@
     </row>
     <row r="17" spans="1:26" ht="111" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="10">
         <v>3</v>
       </c>
@@ -3140,10 +3139,10 @@
     </row>
     <row r="18" spans="1:26" ht="55.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="10">
         <v>4</v>
       </c>
@@ -3178,10 +3177,10 @@
     </row>
     <row r="19" spans="1:26" ht="105.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="10">
         <v>5</v>
       </c>
@@ -3216,10 +3215,10 @@
     </row>
     <row r="20" spans="1:26" ht="45">
       <c r="A20" s="1"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="10">
         <v>6</v>
       </c>
@@ -3320,16 +3319,16 @@
     </row>
     <row r="23" spans="1:26" ht="150">
       <c r="A23" s="1"/>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="44" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="10">
@@ -3366,10 +3365,10 @@
     </row>
     <row r="24" spans="1:26" ht="149.65" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="10">
         <v>2</v>
       </c>
@@ -3404,10 +3403,10 @@
     </row>
     <row r="25" spans="1:26" ht="135.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="10">
         <v>3</v>
       </c>
@@ -3470,16 +3469,16 @@
     </row>
     <row r="27" spans="1:26" ht="44.25" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="38" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="17">
@@ -3516,10 +3515,10 @@
     </row>
     <row r="28" spans="1:26" ht="45">
       <c r="A28" s="1"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="17">
         <v>2</v>
       </c>
@@ -3554,10 +3553,10 @@
     </row>
     <row r="29" spans="1:26" ht="36" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="17">
         <v>3</v>
       </c>
@@ -3620,16 +3619,16 @@
     </row>
     <row r="31" spans="1:26" ht="58.15" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="49" t="s">
+      <c r="E31" s="45" t="s">
         <v>56</v>
       </c>
       <c r="F31" s="17">
@@ -3666,10 +3665,10 @@
     </row>
     <row r="32" spans="1:26" ht="57" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="17">
         <v>2</v>
       </c>
@@ -3732,16 +3731,16 @@
     </row>
     <row r="34" spans="1:26" ht="90.75" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="38" t="s">
         <v>65</v>
       </c>
       <c r="F34" s="17">
@@ -3778,10 +3777,10 @@
     </row>
     <row r="35" spans="1:26" ht="57" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="17">
         <v>2</v>
       </c>
@@ -3816,10 +3815,10 @@
     </row>
     <row r="36" spans="1:26" ht="57" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
       <c r="F36" s="17">
         <v>3</v>
       </c>
@@ -3882,16 +3881,16 @@
     </row>
     <row r="38" spans="1:26" ht="77.45" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="38" t="s">
         <v>250</v>
       </c>
       <c r="F38" s="17">
@@ -3928,10 +3927,10 @@
     </row>
     <row r="39" spans="1:26" ht="180" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="17">
         <v>2</v>
       </c>
@@ -3966,7 +3965,7 @@
     </row>
     <row r="40" spans="1:26" ht="189.6" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="42"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
@@ -4030,16 +4029,16 @@
     </row>
     <row r="42" spans="1:26" ht="58.15" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="49" t="s">
         <v>77</v>
       </c>
       <c r="F42" s="17">
@@ -4076,10 +4075,10 @@
     </row>
     <row r="43" spans="1:26" ht="57" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
       <c r="F43" s="17">
         <v>2</v>
       </c>
@@ -4216,16 +4215,16 @@
     </row>
     <row r="47" spans="1:26" ht="90.75" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="38" t="s">
         <v>84</v>
       </c>
       <c r="F47" s="17">
@@ -4262,10 +4261,10 @@
     </row>
     <row r="48" spans="1:26" ht="57" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
       <c r="F48" s="17">
         <v>2</v>
       </c>
@@ -4300,10 +4299,10 @@
     </row>
     <row r="49" spans="1:26" ht="57" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
       <c r="F49" s="17">
         <v>3</v>
       </c>
@@ -4440,16 +4439,16 @@
     </row>
     <row r="53" spans="1:26" ht="58.15" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E53" s="49" t="s">
         <v>94</v>
       </c>
       <c r="F53" s="17">
@@ -4486,10 +4485,10 @@
     </row>
     <row r="54" spans="1:26" ht="58.15" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
       <c r="F54" s="17">
         <v>2</v>
       </c>
@@ -4524,10 +4523,10 @@
     </row>
     <row r="55" spans="1:26" ht="58.15" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
       <c r="F55" s="17">
         <v>3</v>
       </c>
@@ -4776,16 +4775,16 @@
     </row>
     <row r="62" spans="1:26" ht="48" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="D62" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="E62" s="40" t="s">
+      <c r="E62" s="38" t="s">
         <v>109</v>
       </c>
       <c r="F62" s="17">
@@ -4822,10 +4821,10 @@
     </row>
     <row r="63" spans="1:26" ht="53.25" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="17">
         <v>2</v>
       </c>
@@ -4962,16 +4961,16 @@
     </row>
     <row r="67" spans="1:26" ht="63" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C67" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="40" t="s">
+      <c r="D67" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="38" t="s">
         <v>133</v>
       </c>
       <c r="F67" s="17">
@@ -5008,10 +5007,10 @@
     </row>
     <row r="68" spans="1:26" ht="50.25" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
       <c r="F68" s="17">
         <v>2</v>
       </c>
@@ -5074,16 +5073,16 @@
     </row>
     <row r="70" spans="1:26" ht="80.25" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="40" t="s">
+      <c r="C70" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="40" t="s">
+      <c r="D70" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="E70" s="40" t="s">
+      <c r="E70" s="38" t="s">
         <v>140</v>
       </c>
       <c r="F70" s="17">
@@ -5120,10 +5119,10 @@
     </row>
     <row r="71" spans="1:26" ht="34.15" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
       <c r="F71" s="17">
         <v>2</v>
       </c>
@@ -5158,10 +5157,10 @@
     </row>
     <row r="72" spans="1:26" ht="79.5" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
       <c r="F72" s="17">
         <v>3</v>
       </c>
@@ -5196,10 +5195,10 @@
     </row>
     <row r="73" spans="1:26" ht="34.15" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
       <c r="F73" s="17">
         <v>4</v>
       </c>
@@ -5234,10 +5233,10 @@
     </row>
     <row r="74" spans="1:26" ht="77.25" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
       <c r="F74" s="17">
         <v>5</v>
       </c>
@@ -5272,10 +5271,10 @@
     </row>
     <row r="75" spans="1:26" ht="28.9" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
       <c r="F75" s="17">
         <v>6</v>
       </c>
@@ -5310,10 +5309,10 @@
     </row>
     <row r="76" spans="1:26" ht="75.599999999999994" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
       <c r="F76" s="17">
         <v>7</v>
       </c>
@@ -5348,10 +5347,10 @@
     </row>
     <row r="77" spans="1:26" ht="29.45" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
       <c r="F77" s="17">
         <v>8</v>
       </c>
@@ -5386,10 +5385,10 @@
     </row>
     <row r="78" spans="1:26" ht="78.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
       <c r="F78" s="17">
         <v>9</v>
       </c>
@@ -5424,10 +5423,10 @@
     </row>
     <row r="79" spans="1:26" ht="29.45" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
       <c r="F79" s="17">
         <v>10</v>
       </c>
@@ -5462,10 +5461,10 @@
     </row>
     <row r="80" spans="1:26" ht="29.45" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
       <c r="F80" s="17">
         <v>11</v>
       </c>
@@ -5602,16 +5601,16 @@
     </row>
     <row r="84" spans="1:26" ht="46.5" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="40" t="s">
+      <c r="B84" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="40" t="s">
+      <c r="C84" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="40" t="s">
+      <c r="D84" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="E84" s="40" t="s">
+      <c r="E84" s="38" t="s">
         <v>49</v>
       </c>
       <c r="F84" s="17">
@@ -5648,10 +5647,10 @@
     </row>
     <row r="85" spans="1:26" ht="45">
       <c r="A85" s="1"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
       <c r="F85" s="17">
         <v>2</v>
       </c>
@@ -5686,10 +5685,10 @@
     </row>
     <row r="86" spans="1:26" ht="46.9" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
       <c r="F86" s="17">
         <v>3</v>
       </c>
@@ -5752,16 +5751,16 @@
     </row>
     <row r="88" spans="1:26" ht="58.15" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="49" t="s">
+      <c r="B88" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="C88" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="49" t="s">
+      <c r="D88" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="E88" s="49" t="s">
+      <c r="E88" s="45" t="s">
         <v>168</v>
       </c>
       <c r="F88" s="17">
@@ -5798,10 +5797,10 @@
     </row>
     <row r="89" spans="1:26" ht="57" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
       <c r="F89" s="17">
         <v>2</v>
       </c>
@@ -5842,7 +5841,7 @@
       <c r="E90" s="13"/>
       <c r="F90" s="14"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="51"/>
+      <c r="H90" s="36"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
       <c r="K90" s="1"/>
@@ -5864,16 +5863,16 @@
     </row>
     <row r="91" spans="1:26" ht="111.75" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="C91" s="40" t="s">
+      <c r="C91" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="40" t="s">
+      <c r="D91" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="E91" s="40" t="s">
+      <c r="E91" s="38" t="s">
         <v>171</v>
       </c>
       <c r="F91" s="17">
@@ -5910,10 +5909,10 @@
     </row>
     <row r="92" spans="1:26" ht="51" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
       <c r="F92" s="17">
         <v>2</v>
       </c>
@@ -5948,10 +5947,10 @@
     </row>
     <row r="93" spans="1:26" ht="93.6" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
       <c r="F93" s="17">
         <v>3</v>
       </c>
@@ -5986,10 +5985,10 @@
     </row>
     <row r="94" spans="1:26" ht="45" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="41"/>
-      <c r="E94" s="41"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
       <c r="F94" s="17">
         <v>4</v>
       </c>
@@ -6024,10 +6023,10 @@
     </row>
     <row r="95" spans="1:26" ht="89.45" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
       <c r="F95" s="17">
         <v>5</v>
       </c>
@@ -6062,10 +6061,10 @@
     </row>
     <row r="96" spans="1:26" ht="53.25" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
       <c r="F96" s="17">
         <v>6</v>
       </c>
@@ -6100,10 +6099,10 @@
     </row>
     <row r="97" spans="1:26" ht="39" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
       <c r="F97" s="17">
         <v>7</v>
       </c>
@@ -6240,16 +6239,16 @@
     </row>
     <row r="101" spans="1:26" ht="123" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="36" t="s">
+      <c r="B101" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C101" s="36" t="s">
+      <c r="C101" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D101" s="36" t="s">
+      <c r="D101" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="E101" s="36" t="s">
+      <c r="E101" s="41" t="s">
         <v>249</v>
       </c>
       <c r="F101" s="17">
@@ -6286,10 +6285,10 @@
     </row>
     <row r="102" spans="1:26" ht="60">
       <c r="A102" s="1"/>
-      <c r="B102" s="52"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="52"/>
-      <c r="E102" s="52"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
       <c r="F102" s="17">
         <v>2</v>
       </c>
@@ -6324,10 +6323,10 @@
     </row>
     <row r="103" spans="1:26" ht="93.6" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="47"/>
       <c r="F103" s="17">
         <v>3</v>
       </c>
@@ -6362,10 +6361,10 @@
     </row>
     <row r="104" spans="1:26" ht="60">
       <c r="A104" s="1"/>
-      <c r="B104" s="52"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="52"/>
-      <c r="E104" s="52"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="47"/>
       <c r="F104" s="17">
         <v>4</v>
       </c>
@@ -6400,10 +6399,10 @@
     </row>
     <row r="105" spans="1:26" ht="75">
       <c r="A105" s="1"/>
-      <c r="B105" s="52"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="52"/>
-      <c r="E105" s="52"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="47"/>
       <c r="F105" s="17">
         <v>5</v>
       </c>
@@ -6438,10 +6437,10 @@
     </row>
     <row r="106" spans="1:26" ht="60">
       <c r="A106" s="1"/>
-      <c r="B106" s="52"/>
-      <c r="C106" s="52"/>
-      <c r="D106" s="52"/>
-      <c r="E106" s="52"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="47"/>
+      <c r="E106" s="47"/>
       <c r="F106" s="17">
         <v>6</v>
       </c>
@@ -6476,10 +6475,10 @@
     </row>
     <row r="107" spans="1:26" ht="48.6" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="53"/>
-      <c r="E107" s="53"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="48"/>
       <c r="F107" s="17">
         <v>7</v>
       </c>
@@ -6616,16 +6615,16 @@
     </row>
     <row r="111" spans="1:26" ht="47.25" customHeight="1">
       <c r="A111" s="1"/>
-      <c r="B111" s="40" t="s">
+      <c r="B111" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="C111" s="40" t="s">
+      <c r="C111" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="D111" s="40" t="s">
+      <c r="D111" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E111" s="40" t="s">
+      <c r="E111" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F111" s="17">
@@ -6662,10 +6661,10 @@
     </row>
     <row r="112" spans="1:26" ht="56.25" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="41"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="41"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="40"/>
       <c r="F112" s="17">
         <v>2</v>
       </c>
@@ -6700,10 +6699,10 @@
     </row>
     <row r="113" spans="1:26" ht="72" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="42"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="42"/>
-      <c r="E113" s="42"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
       <c r="F113" s="17">
         <v>3</v>
       </c>
@@ -6766,16 +6765,16 @@
     </row>
     <row r="115" spans="1:26" ht="63" customHeight="1">
       <c r="A115" s="1"/>
-      <c r="B115" s="40" t="s">
+      <c r="B115" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="C115" s="40" t="s">
+      <c r="C115" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="D115" s="40" t="s">
+      <c r="D115" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="E115" s="40" t="s">
+      <c r="E115" s="38" t="s">
         <v>255</v>
       </c>
       <c r="F115" s="17">
@@ -6812,10 +6811,10 @@
     </row>
     <row r="116" spans="1:26" ht="50.25" customHeight="1">
       <c r="A116" s="1"/>
-      <c r="B116" s="41"/>
-      <c r="C116" s="41"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="41"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="40"/>
       <c r="F116" s="17">
         <v>2</v>
       </c>
@@ -6878,16 +6877,16 @@
     </row>
     <row r="118" spans="1:26" ht="47.25" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="40" t="s">
+      <c r="B118" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="C118" s="40" t="s">
+      <c r="C118" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="D118" s="40" t="s">
+      <c r="D118" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="E118" s="40" t="s">
+      <c r="E118" s="38" t="s">
         <v>261</v>
       </c>
       <c r="F118" s="17">
@@ -6924,10 +6923,10 @@
     </row>
     <row r="119" spans="1:26" ht="46.5" customHeight="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="41"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="41"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="40"/>
       <c r="F119" s="17">
         <v>2</v>
       </c>
@@ -6990,16 +6989,16 @@
     </row>
     <row r="121" spans="1:26" ht="47.25" customHeight="1">
       <c r="A121" s="1"/>
-      <c r="B121" s="40" t="s">
+      <c r="B121" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="C121" s="40" t="s">
+      <c r="C121" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="D121" s="40" t="s">
+      <c r="D121" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E121" s="40" t="s">
+      <c r="E121" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F121" s="17">
@@ -7036,10 +7035,10 @@
     </row>
     <row r="122" spans="1:26" ht="56.25" customHeight="1">
       <c r="A122" s="1"/>
-      <c r="B122" s="41"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="40"/>
       <c r="F122" s="17">
         <v>2</v>
       </c>
@@ -7074,10 +7073,10 @@
     </row>
     <row r="123" spans="1:26" ht="77.25" customHeight="1">
       <c r="A123" s="1"/>
-      <c r="B123" s="42"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="42"/>
-      <c r="E123" s="42"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
       <c r="F123" s="17">
         <v>3</v>
       </c>
@@ -7140,16 +7139,16 @@
     </row>
     <row r="125" spans="1:26" ht="47.25" customHeight="1">
       <c r="A125" s="1"/>
-      <c r="B125" s="40" t="s">
+      <c r="B125" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="C125" s="40" t="s">
+      <c r="C125" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="D125" s="40" t="s">
+      <c r="D125" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="E125" s="40" t="s">
+      <c r="E125" s="38" t="s">
         <v>261</v>
       </c>
       <c r="F125" s="17">
@@ -7186,10 +7185,10 @@
     </row>
     <row r="126" spans="1:26" ht="46.5" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="41"/>
-      <c r="C126" s="41"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="41"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="40"/>
       <c r="F126" s="17">
         <v>2</v>
       </c>
@@ -7326,16 +7325,16 @@
     </row>
     <row r="130" spans="1:26" ht="91.5" customHeight="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="36" t="s">
+      <c r="B130" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="C130" s="39" t="s">
+      <c r="C130" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="D130" s="36" t="s">
+      <c r="D130" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="E130" s="36" t="s">
+      <c r="E130" s="41" t="s">
         <v>273</v>
       </c>
       <c r="F130" s="10">
@@ -7372,10 +7371,10 @@
     </row>
     <row r="131" spans="1:26" ht="60.75" customHeight="1">
       <c r="A131" s="1"/>
-      <c r="B131" s="37"/>
-      <c r="C131" s="37"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="37"/>
+      <c r="B131" s="42"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="42"/>
+      <c r="E131" s="42"/>
       <c r="F131" s="10">
         <v>2</v>
       </c>
@@ -7550,16 +7549,16 @@
     </row>
     <row r="136" spans="1:26" ht="48" customHeight="1">
       <c r="A136" s="1"/>
-      <c r="B136" s="40" t="s">
+      <c r="B136" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="C136" s="40" t="s">
+      <c r="C136" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="D136" s="40" t="s">
+      <c r="D136" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="E136" s="40" t="s">
+      <c r="E136" s="38" t="s">
         <v>109</v>
       </c>
       <c r="F136" s="17">
@@ -7596,10 +7595,10 @@
     </row>
     <row r="137" spans="1:26" ht="53.25" customHeight="1">
       <c r="A137" s="1"/>
-      <c r="B137" s="41"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="41"/>
-      <c r="E137" s="41"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="40"/>
       <c r="F137" s="17">
         <v>2</v>
       </c>
@@ -7671,7 +7670,7 @@
       <c r="D139" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="E139" s="54" t="s">
+      <c r="E139" s="37" t="s">
         <v>128</v>
       </c>
       <c r="F139" s="17">
@@ -7736,16 +7735,16 @@
     </row>
     <row r="141" spans="1:26" ht="47.25" customHeight="1">
       <c r="A141" s="1"/>
-      <c r="B141" s="40" t="s">
+      <c r="B141" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="C141" s="40" t="s">
+      <c r="C141" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="D141" s="40" t="s">
+      <c r="D141" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E141" s="40" t="s">
+      <c r="E141" s="38" t="s">
         <v>58</v>
       </c>
       <c r="F141" s="17">
@@ -7782,10 +7781,10 @@
     </row>
     <row r="142" spans="1:26" ht="56.25" customHeight="1">
       <c r="A142" s="1"/>
-      <c r="B142" s="41"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="41"/>
-      <c r="E142" s="41"/>
+      <c r="B142" s="40"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="40"/>
+      <c r="E142" s="40"/>
       <c r="F142" s="17">
         <v>2</v>
       </c>
@@ -7820,10 +7819,10 @@
     </row>
     <row r="143" spans="1:26" ht="96" customHeight="1">
       <c r="A143" s="1"/>
-      <c r="B143" s="42"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="42"/>
-      <c r="E143" s="42"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="39"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="39"/>
       <c r="F143" s="17">
         <v>3</v>
       </c>
@@ -7886,16 +7885,16 @@
     </row>
     <row r="145" spans="1:26" ht="111" customHeight="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="36" t="s">
+      <c r="B145" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="C145" s="39" t="s">
+      <c r="C145" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="D145" s="39" t="s">
+      <c r="D145" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E145" s="36" t="s">
+      <c r="E145" s="41" t="s">
         <v>296</v>
       </c>
       <c r="F145" s="10">
@@ -7932,10 +7931,10 @@
     </row>
     <row r="146" spans="1:26" ht="45">
       <c r="A146" s="1"/>
-      <c r="B146" s="37"/>
-      <c r="C146" s="37"/>
-      <c r="D146" s="37"/>
-      <c r="E146" s="37"/>
+      <c r="B146" s="42"/>
+      <c r="C146" s="42"/>
+      <c r="D146" s="42"/>
+      <c r="E146" s="42"/>
       <c r="F146" s="10">
         <v>2</v>
       </c>
@@ -7970,10 +7969,10 @@
     </row>
     <row r="147" spans="1:26" ht="111" customHeight="1">
       <c r="A147" s="1"/>
-      <c r="B147" s="37"/>
-      <c r="C147" s="37"/>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37"/>
+      <c r="B147" s="42"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="42"/>
+      <c r="E147" s="42"/>
       <c r="F147" s="10">
         <v>3</v>
       </c>
@@ -8008,10 +8007,10 @@
     </row>
     <row r="148" spans="1:26" ht="55.5" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="37"/>
-      <c r="C148" s="37"/>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
+      <c r="B148" s="42"/>
+      <c r="C148" s="42"/>
+      <c r="D148" s="42"/>
+      <c r="E148" s="42"/>
       <c r="F148" s="10">
         <v>4</v>
       </c>
@@ -8046,10 +8045,10 @@
     </row>
     <row r="149" spans="1:26" ht="105.75" customHeight="1">
       <c r="A149" s="1"/>
-      <c r="B149" s="37"/>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
+      <c r="B149" s="42"/>
+      <c r="C149" s="42"/>
+      <c r="D149" s="42"/>
+      <c r="E149" s="42"/>
       <c r="F149" s="10">
         <v>5</v>
       </c>
@@ -8084,10 +8083,10 @@
     </row>
     <row r="150" spans="1:26" ht="45">
       <c r="A150" s="1"/>
-      <c r="B150" s="38"/>
-      <c r="C150" s="38"/>
-      <c r="D150" s="38"/>
-      <c r="E150" s="38"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="43"/>
       <c r="F150" s="10">
         <v>6</v>
       </c>
@@ -8188,16 +8187,16 @@
     </row>
     <row r="153" spans="1:26" ht="135" customHeight="1">
       <c r="A153" s="1"/>
-      <c r="B153" s="36" t="s">
+      <c r="B153" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="C153" s="40" t="s">
+      <c r="C153" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="D153" s="39" t="s">
+      <c r="D153" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E153" s="39" t="s">
+      <c r="E153" s="44" t="s">
         <v>35</v>
       </c>
       <c r="F153" s="10">
@@ -8234,10 +8233,10 @@
     </row>
     <row r="154" spans="1:26" ht="149.65" customHeight="1">
       <c r="A154" s="1"/>
-      <c r="B154" s="37"/>
-      <c r="C154" s="41"/>
-      <c r="D154" s="37"/>
-      <c r="E154" s="37"/>
+      <c r="B154" s="42"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="42"/>
+      <c r="E154" s="42"/>
       <c r="F154" s="10">
         <v>2</v>
       </c>
@@ -8272,10 +8271,10 @@
     </row>
     <row r="155" spans="1:26" ht="135.75" customHeight="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="38"/>
-      <c r="C155" s="42"/>
-      <c r="D155" s="38"/>
-      <c r="E155" s="38"/>
+      <c r="B155" s="43"/>
+      <c r="C155" s="39"/>
+      <c r="D155" s="43"/>
+      <c r="E155" s="43"/>
       <c r="F155" s="10">
         <v>3</v>
       </c>
@@ -8338,16 +8337,16 @@
     </row>
     <row r="157" spans="1:26" ht="90.75" customHeight="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="40" t="s">
+      <c r="B157" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="C157" s="40" t="s">
+      <c r="C157" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="D157" s="40" t="s">
+      <c r="D157" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E157" s="40" t="s">
+      <c r="E157" s="38" t="s">
         <v>84</v>
       </c>
       <c r="F157" s="17">
@@ -8384,10 +8383,10 @@
     </row>
     <row r="158" spans="1:26" ht="57" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="41"/>
-      <c r="C158" s="41"/>
-      <c r="D158" s="41"/>
-      <c r="E158" s="41"/>
+      <c r="B158" s="40"/>
+      <c r="C158" s="40"/>
+      <c r="D158" s="40"/>
+      <c r="E158" s="40"/>
       <c r="F158" s="17">
         <v>2</v>
       </c>
@@ -8422,10 +8421,10 @@
     </row>
     <row r="159" spans="1:26" ht="57" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="42"/>
-      <c r="C159" s="42"/>
-      <c r="D159" s="42"/>
-      <c r="E159" s="42"/>
+      <c r="B159" s="39"/>
+      <c r="C159" s="39"/>
+      <c r="D159" s="39"/>
+      <c r="E159" s="39"/>
       <c r="F159" s="17">
         <v>3</v>
       </c>
@@ -8565,7 +8564,7 @@
       <c r="B163" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="C163" s="40" t="s">
+      <c r="C163" s="38" t="s">
         <v>297</v>
       </c>
       <c r="D163" s="29" t="s">
@@ -8609,7 +8608,7 @@
     <row r="164" spans="1:26" ht="95.25" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="30"/>
-      <c r="C164" s="41"/>
+      <c r="C164" s="40"/>
       <c r="D164" s="30"/>
       <c r="E164" s="30"/>
       <c r="F164" s="17">
@@ -8652,7 +8651,7 @@
       <c r="E165" s="13"/>
       <c r="F165" s="14"/>
       <c r="G165" s="13"/>
-      <c r="H165" s="51"/>
+      <c r="H165" s="36"/>
       <c r="I165" s="13"/>
       <c r="J165" s="13"/>
       <c r="K165" s="1"/>
@@ -8674,16 +8673,16 @@
     </row>
     <row r="166" spans="1:26" ht="75.75" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="40" t="s">
+      <c r="B166" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="C166" s="40" t="s">
+      <c r="C166" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="D166" s="40" t="s">
+      <c r="D166" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="E166" s="40" t="s">
+      <c r="E166" s="38" t="s">
         <v>171</v>
       </c>
       <c r="F166" s="17">
@@ -8720,10 +8719,10 @@
     </row>
     <row r="167" spans="1:26" ht="44.25" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="41"/>
-      <c r="C167" s="41"/>
-      <c r="D167" s="41"/>
-      <c r="E167" s="41"/>
+      <c r="B167" s="40"/>
+      <c r="C167" s="40"/>
+      <c r="D167" s="40"/>
+      <c r="E167" s="40"/>
       <c r="F167" s="17">
         <v>2</v>
       </c>
@@ -8758,10 +8757,10 @@
     </row>
     <row r="168" spans="1:26" ht="79.5" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="41"/>
-      <c r="C168" s="41"/>
-      <c r="D168" s="41"/>
-      <c r="E168" s="41"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="40"/>
       <c r="F168" s="17">
         <v>3</v>
       </c>
@@ -8796,10 +8795,10 @@
     </row>
     <row r="169" spans="1:26" ht="46.5" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="41"/>
-      <c r="C169" s="41"/>
-      <c r="D169" s="41"/>
-      <c r="E169" s="41"/>
+      <c r="B169" s="40"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="40"/>
+      <c r="E169" s="40"/>
       <c r="F169" s="17">
         <v>4</v>
       </c>
@@ -8834,10 +8833,10 @@
     </row>
     <row r="170" spans="1:26" ht="75" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="41"/>
-      <c r="C170" s="41"/>
-      <c r="D170" s="41"/>
-      <c r="E170" s="41"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="40"/>
+      <c r="E170" s="40"/>
       <c r="F170" s="17">
         <v>5</v>
       </c>
@@ -8872,10 +8871,10 @@
     </row>
     <row r="171" spans="1:26" ht="51.75" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="41"/>
-      <c r="C171" s="41"/>
-      <c r="D171" s="41"/>
-      <c r="E171" s="41"/>
+      <c r="B171" s="40"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="40"/>
+      <c r="E171" s="40"/>
       <c r="F171" s="17">
         <v>6</v>
       </c>
@@ -8910,10 +8909,10 @@
     </row>
     <row r="172" spans="1:26" ht="45.75" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="42"/>
-      <c r="C172" s="42"/>
-      <c r="D172" s="42"/>
-      <c r="E172" s="42"/>
+      <c r="B172" s="39"/>
+      <c r="C172" s="39"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="39"/>
       <c r="F172" s="17">
         <v>7</v>
       </c>
@@ -9050,16 +9049,16 @@
     </row>
     <row r="176" spans="1:26" ht="56.25" customHeight="1">
       <c r="A176" s="1"/>
-      <c r="B176" s="40" t="s">
+      <c r="B176" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="C176" s="40" t="s">
+      <c r="C176" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="D176" s="40" t="s">
+      <c r="D176" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="E176" s="40" t="s">
+      <c r="E176" s="38" t="s">
         <v>309</v>
       </c>
       <c r="F176" s="17">
@@ -9096,10 +9095,10 @@
     </row>
     <row r="177" spans="1:26" ht="66" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="42"/>
-      <c r="C177" s="42"/>
-      <c r="D177" s="42"/>
-      <c r="E177" s="42"/>
+      <c r="B177" s="39"/>
+      <c r="C177" s="39"/>
+      <c r="D177" s="39"/>
+      <c r="E177" s="39"/>
       <c r="F177" s="17">
         <v>2</v>
       </c>
@@ -9134,31 +9133,84 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="E157:E159"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="B166:B172"/>
-    <mergeCell ref="C166:C172"/>
-    <mergeCell ref="D166:D172"/>
-    <mergeCell ref="E166:E172"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="E141:E143"/>
-    <mergeCell ref="B145:B150"/>
-    <mergeCell ref="C145:C150"/>
-    <mergeCell ref="D145:D150"/>
-    <mergeCell ref="E145:E150"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E91:E97"/>
+    <mergeCell ref="D91:D97"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="B70:B80"/>
+    <mergeCell ref="E70:E80"/>
+    <mergeCell ref="D70:D80"/>
+    <mergeCell ref="C70:C80"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B101:B107"/>
+    <mergeCell ref="C101:C107"/>
+    <mergeCell ref="D101:D107"/>
+    <mergeCell ref="E101:E107"/>
     <mergeCell ref="B121:B123"/>
     <mergeCell ref="C121:C123"/>
     <mergeCell ref="D121:D123"/>
@@ -9179,88 +9231,35 @@
     <mergeCell ref="C118:C119"/>
     <mergeCell ref="D118:D119"/>
     <mergeCell ref="E118:E119"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B101:B107"/>
-    <mergeCell ref="C101:C107"/>
-    <mergeCell ref="D101:D107"/>
-    <mergeCell ref="E101:E107"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E91:E97"/>
-    <mergeCell ref="D91:D97"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="B70:B80"/>
-    <mergeCell ref="E70:E80"/>
-    <mergeCell ref="D70:D80"/>
-    <mergeCell ref="C70:C80"/>
     <mergeCell ref="E125:E126"/>
     <mergeCell ref="B125:B126"/>
     <mergeCell ref="C125:C126"/>
     <mergeCell ref="D125:D126"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="E141:E143"/>
+    <mergeCell ref="B145:B150"/>
+    <mergeCell ref="C145:C150"/>
+    <mergeCell ref="D145:D150"/>
+    <mergeCell ref="E145:E150"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="E157:E159"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="B166:B172"/>
+    <mergeCell ref="C166:C172"/>
+    <mergeCell ref="D166:D172"/>
+    <mergeCell ref="E166:E172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Documentacion/Plantilla Historias Usuario - Oficina de Proyectos de Informatica.xlsx
+++ b/Documentacion/Plantilla Historias Usuario - Oficina de Proyectos de Informatica.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USUARIO\Documents\Proyectos\E-vote\E-vote-Backend\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\E-vote\E-vote-Backend\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACAA4A5-4664-47C4-B562-1F40CDDC15F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="317">
   <si>
     <t>Desarrollo ágil: Historias de usuario y criterios de aceptación</t>
   </si>
@@ -1767,12 +1760,15 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Como un candidato</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1812,12 +1808,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2089,20 +2079,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2113,6 +2109,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2120,26 +2121,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2169,7 +2159,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2481,11 +2471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2602,18 +2592,18 @@
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="52" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2725,10 +2715,10 @@
     </row>
     <row r="7" spans="1:26" ht="57" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
       <c r="F7" s="17">
         <v>2</v>
       </c>
@@ -2763,10 +2753,10 @@
     </row>
     <row r="8" spans="1:26" ht="131.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="17">
         <v>3</v>
       </c>
@@ -2829,16 +2819,16 @@
     </row>
     <row r="10" spans="1:26" ht="45">
       <c r="A10" s="1"/>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="49" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="5">
@@ -2875,10 +2865,10 @@
     </row>
     <row r="11" spans="1:26" ht="52.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="5">
         <v>2</v>
       </c>
@@ -2913,10 +2903,10 @@
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="10">
         <v>3</v>
       </c>
@@ -2951,10 +2941,10 @@
     </row>
     <row r="13" spans="1:26" ht="49.9" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="10">
         <v>4</v>
       </c>
@@ -3017,16 +3007,16 @@
     </row>
     <row r="15" spans="1:26" ht="111" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="5">
@@ -3063,10 +3053,10 @@
     </row>
     <row r="16" spans="1:26" ht="45">
       <c r="A16" s="1"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="10">
         <v>2</v>
       </c>
@@ -3101,10 +3091,10 @@
     </row>
     <row r="17" spans="1:26" ht="111" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="10">
         <v>3</v>
       </c>
@@ -3139,10 +3129,10 @@
     </row>
     <row r="18" spans="1:26" ht="55.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="10">
         <v>4</v>
       </c>
@@ -3177,10 +3167,10 @@
     </row>
     <row r="19" spans="1:26" ht="105.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="10">
         <v>5</v>
       </c>
@@ -3215,10 +3205,10 @@
     </row>
     <row r="20" spans="1:26" ht="45">
       <c r="A20" s="1"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="10">
         <v>6</v>
       </c>
@@ -3319,16 +3309,16 @@
     </row>
     <row r="23" spans="1:26" ht="150">
       <c r="A23" s="1"/>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="49" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="10">
@@ -3365,10 +3355,10 @@
     </row>
     <row r="24" spans="1:26" ht="149.65" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="10">
         <v>2</v>
       </c>
@@ -3403,10 +3393,10 @@
     </row>
     <row r="25" spans="1:26" ht="135.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="10">
         <v>3</v>
       </c>
@@ -3515,10 +3505,10 @@
     </row>
     <row r="28" spans="1:26" ht="45">
       <c r="A28" s="1"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="17">
         <v>2</v>
       </c>
@@ -3553,10 +3543,10 @@
     </row>
     <row r="29" spans="1:26" ht="36" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="17">
         <v>3</v>
       </c>
@@ -3619,16 +3609,16 @@
     </row>
     <row r="31" spans="1:26" ht="58.15" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="50" t="s">
         <v>56</v>
       </c>
       <c r="F31" s="17">
@@ -3665,10 +3655,10 @@
     </row>
     <row r="32" spans="1:26" ht="57" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="17">
         <v>2</v>
       </c>
@@ -3777,10 +3767,10 @@
     </row>
     <row r="35" spans="1:26" ht="57" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="17">
         <v>2</v>
       </c>
@@ -3815,10 +3805,10 @@
     </row>
     <row r="36" spans="1:26" ht="57" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="17">
         <v>3</v>
       </c>
@@ -3927,10 +3917,10 @@
     </row>
     <row r="39" spans="1:26" ht="180" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="17">
         <v>2</v>
       </c>
@@ -3965,7 +3955,7 @@
     </row>
     <row r="40" spans="1:26" ht="189.6" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="39"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
@@ -4029,16 +4019,16 @@
     </row>
     <row r="42" spans="1:26" ht="58.15" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="49" t="s">
+      <c r="E42" s="41" t="s">
         <v>77</v>
       </c>
       <c r="F42" s="17">
@@ -4075,10 +4065,10 @@
     </row>
     <row r="43" spans="1:26" ht="57" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
       <c r="F43" s="17">
         <v>2</v>
       </c>
@@ -4261,10 +4251,10 @@
     </row>
     <row r="48" spans="1:26" ht="57" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="17">
         <v>2</v>
       </c>
@@ -4299,10 +4289,10 @@
     </row>
     <row r="49" spans="1:26" ht="57" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="17">
         <v>3</v>
       </c>
@@ -4439,16 +4429,16 @@
     </row>
     <row r="53" spans="1:26" ht="58.15" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="41" t="s">
         <v>94</v>
       </c>
       <c r="F53" s="17">
@@ -4485,10 +4475,10 @@
     </row>
     <row r="54" spans="1:26" ht="58.15" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
       <c r="F54" s="17">
         <v>2</v>
       </c>
@@ -4523,10 +4513,10 @@
     </row>
     <row r="55" spans="1:26" ht="58.15" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
       <c r="F55" s="17">
         <v>3</v>
       </c>
@@ -4821,10 +4811,10 @@
     </row>
     <row r="63" spans="1:26" ht="53.25" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
       <c r="F63" s="17">
         <v>2</v>
       </c>
@@ -5007,10 +4997,10 @@
     </row>
     <row r="68" spans="1:26" ht="50.25" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
       <c r="F68" s="17">
         <v>2</v>
       </c>
@@ -5119,10 +5109,10 @@
     </row>
     <row r="71" spans="1:26" ht="34.15" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
       <c r="F71" s="17">
         <v>2</v>
       </c>
@@ -5157,10 +5147,10 @@
     </row>
     <row r="72" spans="1:26" ht="79.5" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
       <c r="F72" s="17">
         <v>3</v>
       </c>
@@ -5195,10 +5185,10 @@
     </row>
     <row r="73" spans="1:26" ht="34.15" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
       <c r="F73" s="17">
         <v>4</v>
       </c>
@@ -5233,10 +5223,10 @@
     </row>
     <row r="74" spans="1:26" ht="77.25" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
       <c r="F74" s="17">
         <v>5</v>
       </c>
@@ -5271,10 +5261,10 @@
     </row>
     <row r="75" spans="1:26" ht="28.9" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
       <c r="F75" s="17">
         <v>6</v>
       </c>
@@ -5309,10 +5299,10 @@
     </row>
     <row r="76" spans="1:26" ht="75.599999999999994" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
       <c r="F76" s="17">
         <v>7</v>
       </c>
@@ -5347,10 +5337,10 @@
     </row>
     <row r="77" spans="1:26" ht="29.45" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
       <c r="F77" s="17">
         <v>8</v>
       </c>
@@ -5385,10 +5375,10 @@
     </row>
     <row r="78" spans="1:26" ht="78.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
       <c r="F78" s="17">
         <v>9</v>
       </c>
@@ -5423,10 +5413,10 @@
     </row>
     <row r="79" spans="1:26" ht="29.45" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
       <c r="F79" s="17">
         <v>10</v>
       </c>
@@ -5461,10 +5451,10 @@
     </row>
     <row r="80" spans="1:26" ht="29.45" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
       <c r="F80" s="17">
         <v>11</v>
       </c>
@@ -5647,10 +5637,10 @@
     </row>
     <row r="85" spans="1:26" ht="45">
       <c r="A85" s="1"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
       <c r="F85" s="17">
         <v>2</v>
       </c>
@@ -5685,10 +5675,10 @@
     </row>
     <row r="86" spans="1:26" ht="46.9" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
       <c r="F86" s="17">
         <v>3</v>
       </c>
@@ -5751,16 +5741,16 @@
     </row>
     <row r="88" spans="1:26" ht="58.15" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="C88" s="45" t="s">
+      <c r="C88" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="45" t="s">
+      <c r="D88" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="E88" s="45" t="s">
+      <c r="E88" s="50" t="s">
         <v>168</v>
       </c>
       <c r="F88" s="17">
@@ -5797,10 +5787,10 @@
     </row>
     <row r="89" spans="1:26" ht="57" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
-      <c r="E89" s="46"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
       <c r="F89" s="17">
         <v>2</v>
       </c>
@@ -5909,10 +5899,10 @@
     </row>
     <row r="92" spans="1:26" ht="51" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
       <c r="F92" s="17">
         <v>2</v>
       </c>
@@ -5947,10 +5937,10 @@
     </row>
     <row r="93" spans="1:26" ht="93.6" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
       <c r="F93" s="17">
         <v>3</v>
       </c>
@@ -5985,10 +5975,10 @@
     </row>
     <row r="94" spans="1:26" ht="45" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
       <c r="F94" s="17">
         <v>4</v>
       </c>
@@ -6023,10 +6013,10 @@
     </row>
     <row r="95" spans="1:26" ht="89.45" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
       <c r="F95" s="17">
         <v>5</v>
       </c>
@@ -6061,10 +6051,10 @@
     </row>
     <row r="96" spans="1:26" ht="53.25" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="40"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
       <c r="F96" s="17">
         <v>6</v>
       </c>
@@ -6099,10 +6089,10 @@
     </row>
     <row r="97" spans="1:26" ht="39" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
       <c r="F97" s="17">
         <v>7</v>
       </c>
@@ -6239,16 +6229,16 @@
     </row>
     <row r="101" spans="1:26" ht="123" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C101" s="41" t="s">
+      <c r="C101" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="D101" s="41" t="s">
+      <c r="D101" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="E101" s="41" t="s">
+      <c r="E101" s="43" t="s">
         <v>249</v>
       </c>
       <c r="F101" s="17">
@@ -6285,10 +6275,10 @@
     </row>
     <row r="102" spans="1:26" ht="60">
       <c r="A102" s="1"/>
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="47"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="53"/>
       <c r="F102" s="17">
         <v>2</v>
       </c>
@@ -6323,10 +6313,10 @@
     </row>
     <row r="103" spans="1:26" ht="93.6" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="47"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="47"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="53"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
       <c r="F103" s="17">
         <v>3</v>
       </c>
@@ -6361,10 +6351,10 @@
     </row>
     <row r="104" spans="1:26" ht="60">
       <c r="A104" s="1"/>
-      <c r="B104" s="47"/>
-      <c r="C104" s="47"/>
-      <c r="D104" s="47"/>
-      <c r="E104" s="47"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
       <c r="F104" s="17">
         <v>4</v>
       </c>
@@ -6399,10 +6389,10 @@
     </row>
     <row r="105" spans="1:26" ht="75">
       <c r="A105" s="1"/>
-      <c r="B105" s="47"/>
-      <c r="C105" s="47"/>
-      <c r="D105" s="47"/>
-      <c r="E105" s="47"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
       <c r="F105" s="17">
         <v>5</v>
       </c>
@@ -6437,10 +6427,10 @@
     </row>
     <row r="106" spans="1:26" ht="60">
       <c r="A106" s="1"/>
-      <c r="B106" s="47"/>
-      <c r="C106" s="47"/>
-      <c r="D106" s="47"/>
-      <c r="E106" s="47"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="53"/>
+      <c r="E106" s="53"/>
       <c r="F106" s="17">
         <v>6</v>
       </c>
@@ -6475,10 +6465,10 @@
     </row>
     <row r="107" spans="1:26" ht="48.6" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="48"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="48"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
       <c r="F107" s="17">
         <v>7</v>
       </c>
@@ -6661,10 +6651,10 @@
     </row>
     <row r="112" spans="1:26" ht="56.25" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="40"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40"/>
-      <c r="E112" s="40"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
       <c r="F112" s="17">
         <v>2</v>
       </c>
@@ -6699,10 +6689,10 @@
     </row>
     <row r="113" spans="1:26" ht="72" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="40"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="40"/>
       <c r="F113" s="17">
         <v>3</v>
       </c>
@@ -6769,7 +6759,7 @@
         <v>185</v>
       </c>
       <c r="C115" s="38" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="D115" s="38" t="s">
         <v>254</v>
@@ -6811,10 +6801,10 @@
     </row>
     <row r="116" spans="1:26" ht="50.25" customHeight="1">
       <c r="A116" s="1"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="40"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="39"/>
       <c r="F116" s="17">
         <v>2</v>
       </c>
@@ -6923,10 +6913,10 @@
     </row>
     <row r="119" spans="1:26" ht="46.5" customHeight="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="40"/>
-      <c r="C119" s="40"/>
-      <c r="D119" s="40"/>
-      <c r="E119" s="40"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
       <c r="F119" s="17">
         <v>2</v>
       </c>
@@ -7035,10 +7025,10 @@
     </row>
     <row r="122" spans="1:26" ht="56.25" customHeight="1">
       <c r="A122" s="1"/>
-      <c r="B122" s="40"/>
-      <c r="C122" s="40"/>
-      <c r="D122" s="40"/>
-      <c r="E122" s="40"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="39"/>
       <c r="F122" s="17">
         <v>2</v>
       </c>
@@ -7073,10 +7063,10 @@
     </row>
     <row r="123" spans="1:26" ht="77.25" customHeight="1">
       <c r="A123" s="1"/>
-      <c r="B123" s="39"/>
-      <c r="C123" s="39"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="39"/>
+      <c r="B123" s="40"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="40"/>
       <c r="F123" s="17">
         <v>3</v>
       </c>
@@ -7185,10 +7175,10 @@
     </row>
     <row r="126" spans="1:26" ht="46.5" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="40"/>
-      <c r="E126" s="40"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="39"/>
       <c r="F126" s="17">
         <v>2</v>
       </c>
@@ -7325,16 +7315,16 @@
     </row>
     <row r="130" spans="1:26" ht="91.5" customHeight="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="41" t="s">
+      <c r="B130" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="C130" s="44" t="s">
+      <c r="C130" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="D130" s="41" t="s">
+      <c r="D130" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="E130" s="41" t="s">
+      <c r="E130" s="43" t="s">
         <v>273</v>
       </c>
       <c r="F130" s="10">
@@ -7371,10 +7361,10 @@
     </row>
     <row r="131" spans="1:26" ht="60.75" customHeight="1">
       <c r="A131" s="1"/>
-      <c r="B131" s="42"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="42"/>
-      <c r="E131" s="42"/>
+      <c r="B131" s="44"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="44"/>
+      <c r="E131" s="44"/>
       <c r="F131" s="10">
         <v>2</v>
       </c>
@@ -7595,10 +7585,10 @@
     </row>
     <row r="137" spans="1:26" ht="53.25" customHeight="1">
       <c r="A137" s="1"/>
-      <c r="B137" s="40"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="40"/>
-      <c r="E137" s="40"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
       <c r="F137" s="17">
         <v>2</v>
       </c>
@@ -7665,7 +7655,7 @@
         <v>289</v>
       </c>
       <c r="C139" s="31" t="s">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="D139" s="31" t="s">
         <v>286</v>
@@ -7781,10 +7771,10 @@
     </row>
     <row r="142" spans="1:26" ht="56.25" customHeight="1">
       <c r="A142" s="1"/>
-      <c r="B142" s="40"/>
-      <c r="C142" s="40"/>
-      <c r="D142" s="40"/>
-      <c r="E142" s="40"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="39"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="39"/>
       <c r="F142" s="17">
         <v>2</v>
       </c>
@@ -7819,10 +7809,10 @@
     </row>
     <row r="143" spans="1:26" ht="96" customHeight="1">
       <c r="A143" s="1"/>
-      <c r="B143" s="39"/>
-      <c r="C143" s="39"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="39"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="40"/>
+      <c r="D143" s="40"/>
+      <c r="E143" s="40"/>
       <c r="F143" s="17">
         <v>3</v>
       </c>
@@ -7885,16 +7875,16 @@
     </row>
     <row r="145" spans="1:26" ht="111" customHeight="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="41" t="s">
+      <c r="B145" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="C145" s="44" t="s">
+      <c r="C145" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="D145" s="44" t="s">
+      <c r="D145" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E145" s="41" t="s">
+      <c r="E145" s="43" t="s">
         <v>296</v>
       </c>
       <c r="F145" s="10">
@@ -7931,10 +7921,10 @@
     </row>
     <row r="146" spans="1:26" ht="45">
       <c r="A146" s="1"/>
-      <c r="B146" s="42"/>
-      <c r="C146" s="42"/>
-      <c r="D146" s="42"/>
-      <c r="E146" s="42"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="44"/>
+      <c r="E146" s="44"/>
       <c r="F146" s="10">
         <v>2</v>
       </c>
@@ -7969,10 +7959,10 @@
     </row>
     <row r="147" spans="1:26" ht="111" customHeight="1">
       <c r="A147" s="1"/>
-      <c r="B147" s="42"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="42"/>
-      <c r="E147" s="42"/>
+      <c r="B147" s="44"/>
+      <c r="C147" s="44"/>
+      <c r="D147" s="44"/>
+      <c r="E147" s="44"/>
       <c r="F147" s="10">
         <v>3</v>
       </c>
@@ -8007,10 +7997,10 @@
     </row>
     <row r="148" spans="1:26" ht="55.5" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="42"/>
-      <c r="C148" s="42"/>
-      <c r="D148" s="42"/>
-      <c r="E148" s="42"/>
+      <c r="B148" s="44"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="44"/>
+      <c r="E148" s="44"/>
       <c r="F148" s="10">
         <v>4</v>
       </c>
@@ -8045,10 +8035,10 @@
     </row>
     <row r="149" spans="1:26" ht="105.75" customHeight="1">
       <c r="A149" s="1"/>
-      <c r="B149" s="42"/>
-      <c r="C149" s="42"/>
-      <c r="D149" s="42"/>
-      <c r="E149" s="42"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="44"/>
+      <c r="E149" s="44"/>
       <c r="F149" s="10">
         <v>5</v>
       </c>
@@ -8083,10 +8073,10 @@
     </row>
     <row r="150" spans="1:26" ht="45">
       <c r="A150" s="1"/>
-      <c r="B150" s="43"/>
-      <c r="C150" s="43"/>
-      <c r="D150" s="43"/>
-      <c r="E150" s="43"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
       <c r="F150" s="10">
         <v>6</v>
       </c>
@@ -8187,16 +8177,16 @@
     </row>
     <row r="153" spans="1:26" ht="135" customHeight="1">
       <c r="A153" s="1"/>
-      <c r="B153" s="41" t="s">
+      <c r="B153" s="43" t="s">
         <v>295</v>
       </c>
       <c r="C153" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="D153" s="44" t="s">
+      <c r="D153" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E153" s="44" t="s">
+      <c r="E153" s="49" t="s">
         <v>35</v>
       </c>
       <c r="F153" s="10">
@@ -8233,10 +8223,10 @@
     </row>
     <row r="154" spans="1:26" ht="149.65" customHeight="1">
       <c r="A154" s="1"/>
-      <c r="B154" s="42"/>
-      <c r="C154" s="40"/>
-      <c r="D154" s="42"/>
-      <c r="E154" s="42"/>
+      <c r="B154" s="44"/>
+      <c r="C154" s="39"/>
+      <c r="D154" s="44"/>
+      <c r="E154" s="44"/>
       <c r="F154" s="10">
         <v>2</v>
       </c>
@@ -8271,10 +8261,10 @@
     </row>
     <row r="155" spans="1:26" ht="135.75" customHeight="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="43"/>
-      <c r="C155" s="39"/>
-      <c r="D155" s="43"/>
-      <c r="E155" s="43"/>
+      <c r="B155" s="45"/>
+      <c r="C155" s="40"/>
+      <c r="D155" s="45"/>
+      <c r="E155" s="45"/>
       <c r="F155" s="10">
         <v>3</v>
       </c>
@@ -8383,10 +8373,10 @@
     </row>
     <row r="158" spans="1:26" ht="57" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="40"/>
-      <c r="C158" s="40"/>
-      <c r="D158" s="40"/>
-      <c r="E158" s="40"/>
+      <c r="B158" s="39"/>
+      <c r="C158" s="39"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="39"/>
       <c r="F158" s="17">
         <v>2</v>
       </c>
@@ -8421,10 +8411,10 @@
     </row>
     <row r="159" spans="1:26" ht="57" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="39"/>
-      <c r="C159" s="39"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="39"/>
+      <c r="B159" s="40"/>
+      <c r="C159" s="40"/>
+      <c r="D159" s="40"/>
+      <c r="E159" s="40"/>
       <c r="F159" s="17">
         <v>3</v>
       </c>
@@ -8608,7 +8598,7 @@
     <row r="164" spans="1:26" ht="95.25" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="30"/>
-      <c r="C164" s="40"/>
+      <c r="C164" s="39"/>
       <c r="D164" s="30"/>
       <c r="E164" s="30"/>
       <c r="F164" s="17">
@@ -8719,10 +8709,10 @@
     </row>
     <row r="167" spans="1:26" ht="44.25" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="40"/>
-      <c r="C167" s="40"/>
-      <c r="D167" s="40"/>
-      <c r="E167" s="40"/>
+      <c r="B167" s="39"/>
+      <c r="C167" s="39"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="39"/>
       <c r="F167" s="17">
         <v>2</v>
       </c>
@@ -8757,10 +8747,10 @@
     </row>
     <row r="168" spans="1:26" ht="79.5" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="40"/>
-      <c r="C168" s="40"/>
-      <c r="D168" s="40"/>
-      <c r="E168" s="40"/>
+      <c r="B168" s="39"/>
+      <c r="C168" s="39"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="39"/>
       <c r="F168" s="17">
         <v>3</v>
       </c>
@@ -8795,10 +8785,10 @@
     </row>
     <row r="169" spans="1:26" ht="46.5" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="40"/>
-      <c r="C169" s="40"/>
-      <c r="D169" s="40"/>
-      <c r="E169" s="40"/>
+      <c r="B169" s="39"/>
+      <c r="C169" s="39"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="39"/>
       <c r="F169" s="17">
         <v>4</v>
       </c>
@@ -8833,10 +8823,10 @@
     </row>
     <row r="170" spans="1:26" ht="75" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="40"/>
-      <c r="C170" s="40"/>
-      <c r="D170" s="40"/>
-      <c r="E170" s="40"/>
+      <c r="B170" s="39"/>
+      <c r="C170" s="39"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="39"/>
       <c r="F170" s="17">
         <v>5</v>
       </c>
@@ -8871,10 +8861,10 @@
     </row>
     <row r="171" spans="1:26" ht="51.75" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="40"/>
-      <c r="C171" s="40"/>
-      <c r="D171" s="40"/>
-      <c r="E171" s="40"/>
+      <c r="B171" s="39"/>
+      <c r="C171" s="39"/>
+      <c r="D171" s="39"/>
+      <c r="E171" s="39"/>
       <c r="F171" s="17">
         <v>6</v>
       </c>
@@ -8909,10 +8899,10 @@
     </row>
     <row r="172" spans="1:26" ht="45.75" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="39"/>
-      <c r="C172" s="39"/>
-      <c r="D172" s="39"/>
-      <c r="E172" s="39"/>
+      <c r="B172" s="40"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="40"/>
+      <c r="E172" s="40"/>
       <c r="F172" s="17">
         <v>7</v>
       </c>
@@ -9095,10 +9085,10 @@
     </row>
     <row r="177" spans="1:26" ht="66" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="39"/>
-      <c r="C177" s="39"/>
-      <c r="D177" s="39"/>
-      <c r="E177" s="39"/>
+      <c r="B177" s="40"/>
+      <c r="C177" s="40"/>
+      <c r="D177" s="40"/>
+      <c r="E177" s="40"/>
       <c r="F177" s="17">
         <v>2</v>
       </c>
@@ -9133,84 +9123,31 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E91:E97"/>
-    <mergeCell ref="D91:D97"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="B70:B80"/>
-    <mergeCell ref="E70:E80"/>
-    <mergeCell ref="D70:D80"/>
-    <mergeCell ref="C70:C80"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B101:B107"/>
-    <mergeCell ref="C101:C107"/>
-    <mergeCell ref="D101:D107"/>
-    <mergeCell ref="E101:E107"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="E157:E159"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="B166:B172"/>
+    <mergeCell ref="C166:C172"/>
+    <mergeCell ref="D166:D172"/>
+    <mergeCell ref="E166:E172"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="E141:E143"/>
+    <mergeCell ref="B145:B150"/>
+    <mergeCell ref="C145:C150"/>
+    <mergeCell ref="D145:D150"/>
+    <mergeCell ref="E145:E150"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="E153:E155"/>
     <mergeCell ref="B121:B123"/>
     <mergeCell ref="C121:C123"/>
     <mergeCell ref="D121:D123"/>
@@ -9235,31 +9172,84 @@
     <mergeCell ref="B125:B126"/>
     <mergeCell ref="C125:C126"/>
     <mergeCell ref="D125:D126"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="E141:E143"/>
-    <mergeCell ref="B145:B150"/>
-    <mergeCell ref="C145:C150"/>
-    <mergeCell ref="D145:D150"/>
-    <mergeCell ref="E145:E150"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="E157:E159"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="B166:B172"/>
-    <mergeCell ref="C166:C172"/>
-    <mergeCell ref="D166:D172"/>
-    <mergeCell ref="E166:E172"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="B70:B80"/>
+    <mergeCell ref="E70:E80"/>
+    <mergeCell ref="D70:D80"/>
+    <mergeCell ref="C70:C80"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E91:E97"/>
+    <mergeCell ref="D91:D97"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B101:B107"/>
+    <mergeCell ref="C101:C107"/>
+    <mergeCell ref="D101:D107"/>
+    <mergeCell ref="E101:E107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Documentacion/Plantilla Historias Usuario - Oficina de Proyectos de Informatica.xlsx
+++ b/Documentacion/Plantilla Historias Usuario - Oficina de Proyectos de Informatica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\E-vote\E-vote-Backend\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACAA4A5-4664-47C4-B562-1F40CDDC15F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D411CC5-55BE-4B5B-8B1C-7587B30B4E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -2088,17 +2088,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2109,21 +2103,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2474,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J119" sqref="J119"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J131" sqref="J131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2592,18 +2592,18 @@
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="46" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="50"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="7" spans="1:26" ht="57" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="17">
         <v>2</v>
       </c>
@@ -2753,10 +2753,10 @@
     </row>
     <row r="8" spans="1:26" ht="131.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="17">
         <v>3</v>
       </c>
@@ -2819,16 +2819,16 @@
     </row>
     <row r="10" spans="1:26" ht="45">
       <c r="A10" s="1"/>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="44" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="5">
@@ -2865,10 +2865,10 @@
     </row>
     <row r="11" spans="1:26" ht="52.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="5">
         <v>2</v>
       </c>
@@ -2903,10 +2903,10 @@
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="10">
         <v>3</v>
       </c>
@@ -2941,10 +2941,10 @@
     </row>
     <row r="13" spans="1:26" ht="49.9" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="10">
         <v>4</v>
       </c>
@@ -3007,16 +3007,16 @@
     </row>
     <row r="15" spans="1:26" ht="111" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="44" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="5">
@@ -3053,10 +3053,10 @@
     </row>
     <row r="16" spans="1:26" ht="45">
       <c r="A16" s="1"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="10">
         <v>2</v>
       </c>
@@ -3091,10 +3091,10 @@
     </row>
     <row r="17" spans="1:26" ht="111" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="10">
         <v>3</v>
       </c>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="18" spans="1:26" ht="55.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="10">
         <v>4</v>
       </c>
@@ -3167,10 +3167,10 @@
     </row>
     <row r="19" spans="1:26" ht="105.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="10">
         <v>5</v>
       </c>
@@ -3205,10 +3205,10 @@
     </row>
     <row r="20" spans="1:26" ht="45">
       <c r="A20" s="1"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="10">
         <v>6</v>
       </c>
@@ -3309,16 +3309,16 @@
     </row>
     <row r="23" spans="1:26" ht="150">
       <c r="A23" s="1"/>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="44" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="10">
@@ -3355,10 +3355,10 @@
     </row>
     <row r="24" spans="1:26" ht="149.65" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="10">
         <v>2</v>
       </c>
@@ -3393,10 +3393,10 @@
     </row>
     <row r="25" spans="1:26" ht="135.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="10">
         <v>3</v>
       </c>
@@ -3505,10 +3505,10 @@
     </row>
     <row r="28" spans="1:26" ht="45">
       <c r="A28" s="1"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="17">
         <v>2</v>
       </c>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="29" spans="1:26" ht="36" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="17">
         <v>3</v>
       </c>
@@ -3609,16 +3609,16 @@
     </row>
     <row r="31" spans="1:26" ht="58.15" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="51" t="s">
         <v>56</v>
       </c>
       <c r="F31" s="17">
@@ -3655,10 +3655,10 @@
     </row>
     <row r="32" spans="1:26" ht="57" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="17">
         <v>2</v>
       </c>
@@ -3767,10 +3767,10 @@
     </row>
     <row r="35" spans="1:26" ht="57" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="17">
         <v>2</v>
       </c>
@@ -3805,10 +3805,10 @@
     </row>
     <row r="36" spans="1:26" ht="57" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
       <c r="F36" s="17">
         <v>3</v>
       </c>
@@ -3917,10 +3917,10 @@
     </row>
     <row r="39" spans="1:26" ht="180" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="17">
         <v>2</v>
       </c>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="40" spans="1:26" ht="189.6" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="40"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
@@ -4019,16 +4019,16 @@
     </row>
     <row r="42" spans="1:26" ht="58.15" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="45" t="s">
         <v>77</v>
       </c>
       <c r="F42" s="17">
@@ -4065,10 +4065,10 @@
     </row>
     <row r="43" spans="1:26" ht="57" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
       <c r="F43" s="17">
         <v>2</v>
       </c>
@@ -4251,10 +4251,10 @@
     </row>
     <row r="48" spans="1:26" ht="57" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
       <c r="F48" s="17">
         <v>2</v>
       </c>
@@ -4289,10 +4289,10 @@
     </row>
     <row r="49" spans="1:26" ht="57" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
       <c r="F49" s="17">
         <v>3</v>
       </c>
@@ -4429,16 +4429,16 @@
     </row>
     <row r="53" spans="1:26" ht="58.15" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="45" t="s">
         <v>94</v>
       </c>
       <c r="F53" s="17">
@@ -4475,10 +4475,10 @@
     </row>
     <row r="54" spans="1:26" ht="58.15" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
       <c r="F54" s="17">
         <v>2</v>
       </c>
@@ -4513,10 +4513,10 @@
     </row>
     <row r="55" spans="1:26" ht="58.15" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
       <c r="F55" s="17">
         <v>3</v>
       </c>
@@ -4811,10 +4811,10 @@
     </row>
     <row r="63" spans="1:26" ht="53.25" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="17">
         <v>2</v>
       </c>
@@ -4997,10 +4997,10 @@
     </row>
     <row r="68" spans="1:26" ht="50.25" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
       <c r="F68" s="17">
         <v>2</v>
       </c>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="71" spans="1:26" ht="34.15" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
       <c r="F71" s="17">
         <v>2</v>
       </c>
@@ -5147,10 +5147,10 @@
     </row>
     <row r="72" spans="1:26" ht="79.5" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
       <c r="F72" s="17">
         <v>3</v>
       </c>
@@ -5185,10 +5185,10 @@
     </row>
     <row r="73" spans="1:26" ht="34.15" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
       <c r="F73" s="17">
         <v>4</v>
       </c>
@@ -5223,10 +5223,10 @@
     </row>
     <row r="74" spans="1:26" ht="77.25" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
       <c r="F74" s="17">
         <v>5</v>
       </c>
@@ -5261,10 +5261,10 @@
     </row>
     <row r="75" spans="1:26" ht="28.9" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
       <c r="F75" s="17">
         <v>6</v>
       </c>
@@ -5299,10 +5299,10 @@
     </row>
     <row r="76" spans="1:26" ht="75.599999999999994" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
       <c r="F76" s="17">
         <v>7</v>
       </c>
@@ -5337,10 +5337,10 @@
     </row>
     <row r="77" spans="1:26" ht="29.45" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
       <c r="F77" s="17">
         <v>8</v>
       </c>
@@ -5375,10 +5375,10 @@
     </row>
     <row r="78" spans="1:26" ht="78.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
       <c r="F78" s="17">
         <v>9</v>
       </c>
@@ -5413,10 +5413,10 @@
     </row>
     <row r="79" spans="1:26" ht="29.45" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
       <c r="F79" s="17">
         <v>10</v>
       </c>
@@ -5451,10 +5451,10 @@
     </row>
     <row r="80" spans="1:26" ht="29.45" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="40"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="40"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
       <c r="F80" s="17">
         <v>11</v>
       </c>
@@ -5637,10 +5637,10 @@
     </row>
     <row r="85" spans="1:26" ht="45">
       <c r="A85" s="1"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="39"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
       <c r="F85" s="17">
         <v>2</v>
       </c>
@@ -5675,10 +5675,10 @@
     </row>
     <row r="86" spans="1:26" ht="46.9" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="40"/>
       <c r="F86" s="17">
         <v>3</v>
       </c>
@@ -5741,16 +5741,16 @@
     </row>
     <row r="88" spans="1:26" ht="58.15" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="50" t="s">
+      <c r="B88" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="C88" s="50" t="s">
+      <c r="C88" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="50" t="s">
+      <c r="D88" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="E88" s="50" t="s">
+      <c r="E88" s="51" t="s">
         <v>168</v>
       </c>
       <c r="F88" s="17">
@@ -5787,10 +5787,10 @@
     </row>
     <row r="89" spans="1:26" ht="57" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="51"/>
-      <c r="E89" s="51"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="52"/>
       <c r="F89" s="17">
         <v>2</v>
       </c>
@@ -5899,10 +5899,10 @@
     </row>
     <row r="92" spans="1:26" ht="51" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
       <c r="F92" s="17">
         <v>2</v>
       </c>
@@ -5937,10 +5937,10 @@
     </row>
     <row r="93" spans="1:26" ht="93.6" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
       <c r="F93" s="17">
         <v>3</v>
       </c>
@@ -5975,10 +5975,10 @@
     </row>
     <row r="94" spans="1:26" ht="45" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
       <c r="F94" s="17">
         <v>4</v>
       </c>
@@ -6013,10 +6013,10 @@
     </row>
     <row r="95" spans="1:26" ht="89.45" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
       <c r="F95" s="17">
         <v>5</v>
       </c>
@@ -6051,10 +6051,10 @@
     </row>
     <row r="96" spans="1:26" ht="53.25" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
       <c r="F96" s="17">
         <v>6</v>
       </c>
@@ -6089,10 +6089,10 @@
     </row>
     <row r="97" spans="1:26" ht="39" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="40"/>
-      <c r="C97" s="40"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
       <c r="F97" s="17">
         <v>7</v>
       </c>
@@ -6229,16 +6229,16 @@
     </row>
     <row r="101" spans="1:26" ht="123" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D101" s="43" t="s">
+      <c r="D101" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="41" t="s">
         <v>249</v>
       </c>
       <c r="F101" s="17">
@@ -6651,10 +6651,10 @@
     </row>
     <row r="112" spans="1:26" ht="56.25" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="39"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="40"/>
       <c r="F112" s="17">
         <v>2</v>
       </c>
@@ -6689,10 +6689,10 @@
     </row>
     <row r="113" spans="1:26" ht="72" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="40"/>
-      <c r="C113" s="40"/>
-      <c r="D113" s="40"/>
-      <c r="E113" s="40"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
       <c r="F113" s="17">
         <v>3</v>
       </c>
@@ -6801,10 +6801,10 @@
     </row>
     <row r="116" spans="1:26" ht="50.25" customHeight="1">
       <c r="A116" s="1"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="40"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="40"/>
       <c r="F116" s="17">
         <v>2</v>
       </c>
@@ -6913,10 +6913,10 @@
     </row>
     <row r="119" spans="1:26" ht="46.5" customHeight="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="39"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="40"/>
       <c r="F119" s="17">
         <v>2</v>
       </c>
@@ -7025,10 +7025,10 @@
     </row>
     <row r="122" spans="1:26" ht="56.25" customHeight="1">
       <c r="A122" s="1"/>
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="40"/>
       <c r="F122" s="17">
         <v>2</v>
       </c>
@@ -7063,10 +7063,10 @@
     </row>
     <row r="123" spans="1:26" ht="77.25" customHeight="1">
       <c r="A123" s="1"/>
-      <c r="B123" s="40"/>
-      <c r="C123" s="40"/>
-      <c r="D123" s="40"/>
-      <c r="E123" s="40"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
       <c r="F123" s="17">
         <v>3</v>
       </c>
@@ -7175,10 +7175,10 @@
     </row>
     <row r="126" spans="1:26" ht="46.5" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="39"/>
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="40"/>
       <c r="F126" s="17">
         <v>2</v>
       </c>
@@ -7315,16 +7315,16 @@
     </row>
     <row r="130" spans="1:26" ht="91.5" customHeight="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="43" t="s">
+      <c r="B130" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="C130" s="49" t="s">
+      <c r="C130" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="D130" s="43" t="s">
+      <c r="D130" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="E130" s="43" t="s">
+      <c r="E130" s="41" t="s">
         <v>273</v>
       </c>
       <c r="F130" s="10">
@@ -7361,10 +7361,10 @@
     </row>
     <row r="131" spans="1:26" ht="60.75" customHeight="1">
       <c r="A131" s="1"/>
-      <c r="B131" s="44"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="44"/>
+      <c r="B131" s="42"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="42"/>
+      <c r="E131" s="42"/>
       <c r="F131" s="10">
         <v>2</v>
       </c>
@@ -7585,10 +7585,10 @@
     </row>
     <row r="137" spans="1:26" ht="53.25" customHeight="1">
       <c r="A137" s="1"/>
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="40"/>
       <c r="F137" s="17">
         <v>2</v>
       </c>
@@ -7771,10 +7771,10 @@
     </row>
     <row r="142" spans="1:26" ht="56.25" customHeight="1">
       <c r="A142" s="1"/>
-      <c r="B142" s="39"/>
-      <c r="C142" s="39"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="39"/>
+      <c r="B142" s="40"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="40"/>
+      <c r="E142" s="40"/>
       <c r="F142" s="17">
         <v>2</v>
       </c>
@@ -7809,10 +7809,10 @@
     </row>
     <row r="143" spans="1:26" ht="96" customHeight="1">
       <c r="A143" s="1"/>
-      <c r="B143" s="40"/>
-      <c r="C143" s="40"/>
-      <c r="D143" s="40"/>
-      <c r="E143" s="40"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="39"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="39"/>
       <c r="F143" s="17">
         <v>3</v>
       </c>
@@ -7875,16 +7875,16 @@
     </row>
     <row r="145" spans="1:26" ht="111" customHeight="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="43" t="s">
+      <c r="B145" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="C145" s="49" t="s">
+      <c r="C145" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="D145" s="49" t="s">
+      <c r="D145" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E145" s="43" t="s">
+      <c r="E145" s="41" t="s">
         <v>296</v>
       </c>
       <c r="F145" s="10">
@@ -7921,10 +7921,10 @@
     </row>
     <row r="146" spans="1:26" ht="45">
       <c r="A146" s="1"/>
-      <c r="B146" s="44"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="44"/>
-      <c r="E146" s="44"/>
+      <c r="B146" s="42"/>
+      <c r="C146" s="42"/>
+      <c r="D146" s="42"/>
+      <c r="E146" s="42"/>
       <c r="F146" s="10">
         <v>2</v>
       </c>
@@ -7959,10 +7959,10 @@
     </row>
     <row r="147" spans="1:26" ht="111" customHeight="1">
       <c r="A147" s="1"/>
-      <c r="B147" s="44"/>
-      <c r="C147" s="44"/>
-      <c r="D147" s="44"/>
-      <c r="E147" s="44"/>
+      <c r="B147" s="42"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="42"/>
+      <c r="E147" s="42"/>
       <c r="F147" s="10">
         <v>3</v>
       </c>
@@ -7997,10 +7997,10 @@
     </row>
     <row r="148" spans="1:26" ht="55.5" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="44"/>
-      <c r="C148" s="44"/>
-      <c r="D148" s="44"/>
-      <c r="E148" s="44"/>
+      <c r="B148" s="42"/>
+      <c r="C148" s="42"/>
+      <c r="D148" s="42"/>
+      <c r="E148" s="42"/>
       <c r="F148" s="10">
         <v>4</v>
       </c>
@@ -8035,10 +8035,10 @@
     </row>
     <row r="149" spans="1:26" ht="105.75" customHeight="1">
       <c r="A149" s="1"/>
-      <c r="B149" s="44"/>
-      <c r="C149" s="44"/>
-      <c r="D149" s="44"/>
-      <c r="E149" s="44"/>
+      <c r="B149" s="42"/>
+      <c r="C149" s="42"/>
+      <c r="D149" s="42"/>
+      <c r="E149" s="42"/>
       <c r="F149" s="10">
         <v>5</v>
       </c>
@@ -8073,10 +8073,10 @@
     </row>
     <row r="150" spans="1:26" ht="45">
       <c r="A150" s="1"/>
-      <c r="B150" s="45"/>
-      <c r="C150" s="45"/>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="43"/>
       <c r="F150" s="10">
         <v>6</v>
       </c>
@@ -8177,16 +8177,16 @@
     </row>
     <row r="153" spans="1:26" ht="135" customHeight="1">
       <c r="A153" s="1"/>
-      <c r="B153" s="43" t="s">
+      <c r="B153" s="41" t="s">
         <v>295</v>
       </c>
       <c r="C153" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="D153" s="49" t="s">
+      <c r="D153" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E153" s="49" t="s">
+      <c r="E153" s="44" t="s">
         <v>35</v>
       </c>
       <c r="F153" s="10">
@@ -8223,10 +8223,10 @@
     </row>
     <row r="154" spans="1:26" ht="149.65" customHeight="1">
       <c r="A154" s="1"/>
-      <c r="B154" s="44"/>
-      <c r="C154" s="39"/>
-      <c r="D154" s="44"/>
-      <c r="E154" s="44"/>
+      <c r="B154" s="42"/>
+      <c r="C154" s="40"/>
+      <c r="D154" s="42"/>
+      <c r="E154" s="42"/>
       <c r="F154" s="10">
         <v>2</v>
       </c>
@@ -8261,10 +8261,10 @@
     </row>
     <row r="155" spans="1:26" ht="135.75" customHeight="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="45"/>
-      <c r="C155" s="40"/>
-      <c r="D155" s="45"/>
-      <c r="E155" s="45"/>
+      <c r="B155" s="43"/>
+      <c r="C155" s="39"/>
+      <c r="D155" s="43"/>
+      <c r="E155" s="43"/>
       <c r="F155" s="10">
         <v>3</v>
       </c>
@@ -8373,10 +8373,10 @@
     </row>
     <row r="158" spans="1:26" ht="57" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="39"/>
-      <c r="C158" s="39"/>
-      <c r="D158" s="39"/>
-      <c r="E158" s="39"/>
+      <c r="B158" s="40"/>
+      <c r="C158" s="40"/>
+      <c r="D158" s="40"/>
+      <c r="E158" s="40"/>
       <c r="F158" s="17">
         <v>2</v>
       </c>
@@ -8411,10 +8411,10 @@
     </row>
     <row r="159" spans="1:26" ht="57" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="40"/>
-      <c r="C159" s="40"/>
-      <c r="D159" s="40"/>
-      <c r="E159" s="40"/>
+      <c r="B159" s="39"/>
+      <c r="C159" s="39"/>
+      <c r="D159" s="39"/>
+      <c r="E159" s="39"/>
       <c r="F159" s="17">
         <v>3</v>
       </c>
@@ -8598,7 +8598,7 @@
     <row r="164" spans="1:26" ht="95.25" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="30"/>
-      <c r="C164" s="39"/>
+      <c r="C164" s="40"/>
       <c r="D164" s="30"/>
       <c r="E164" s="30"/>
       <c r="F164" s="17">
@@ -8709,10 +8709,10 @@
     </row>
     <row r="167" spans="1:26" ht="44.25" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="39"/>
-      <c r="C167" s="39"/>
-      <c r="D167" s="39"/>
-      <c r="E167" s="39"/>
+      <c r="B167" s="40"/>
+      <c r="C167" s="40"/>
+      <c r="D167" s="40"/>
+      <c r="E167" s="40"/>
       <c r="F167" s="17">
         <v>2</v>
       </c>
@@ -8747,10 +8747,10 @@
     </row>
     <row r="168" spans="1:26" ht="79.5" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="39"/>
-      <c r="C168" s="39"/>
-      <c r="D168" s="39"/>
-      <c r="E168" s="39"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="40"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="40"/>
       <c r="F168" s="17">
         <v>3</v>
       </c>
@@ -8785,10 +8785,10 @@
     </row>
     <row r="169" spans="1:26" ht="46.5" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="39"/>
-      <c r="C169" s="39"/>
-      <c r="D169" s="39"/>
-      <c r="E169" s="39"/>
+      <c r="B169" s="40"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="40"/>
+      <c r="E169" s="40"/>
       <c r="F169" s="17">
         <v>4</v>
       </c>
@@ -8823,10 +8823,10 @@
     </row>
     <row r="170" spans="1:26" ht="75" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="39"/>
-      <c r="C170" s="39"/>
-      <c r="D170" s="39"/>
-      <c r="E170" s="39"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="40"/>
+      <c r="E170" s="40"/>
       <c r="F170" s="17">
         <v>5</v>
       </c>
@@ -8861,10 +8861,10 @@
     </row>
     <row r="171" spans="1:26" ht="51.75" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="39"/>
-      <c r="C171" s="39"/>
-      <c r="D171" s="39"/>
-      <c r="E171" s="39"/>
+      <c r="B171" s="40"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="40"/>
+      <c r="E171" s="40"/>
       <c r="F171" s="17">
         <v>6</v>
       </c>
@@ -8899,10 +8899,10 @@
     </row>
     <row r="172" spans="1:26" ht="45.75" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="40"/>
-      <c r="C172" s="40"/>
-      <c r="D172" s="40"/>
-      <c r="E172" s="40"/>
+      <c r="B172" s="39"/>
+      <c r="C172" s="39"/>
+      <c r="D172" s="39"/>
+      <c r="E172" s="39"/>
       <c r="F172" s="17">
         <v>7</v>
       </c>
@@ -9085,10 +9085,10 @@
     </row>
     <row r="177" spans="1:26" ht="66" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="40"/>
-      <c r="C177" s="40"/>
-      <c r="D177" s="40"/>
-      <c r="E177" s="40"/>
+      <c r="B177" s="39"/>
+      <c r="C177" s="39"/>
+      <c r="D177" s="39"/>
+      <c r="E177" s="39"/>
       <c r="F177" s="17">
         <v>2</v>
       </c>
@@ -9123,31 +9123,84 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="E157:E159"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="B166:B172"/>
-    <mergeCell ref="C166:C172"/>
-    <mergeCell ref="D166:D172"/>
-    <mergeCell ref="E166:E172"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="E141:E143"/>
-    <mergeCell ref="B145:B150"/>
-    <mergeCell ref="C145:C150"/>
-    <mergeCell ref="D145:D150"/>
-    <mergeCell ref="E145:E150"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E91:E97"/>
+    <mergeCell ref="D91:D97"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B101:B107"/>
+    <mergeCell ref="C101:C107"/>
+    <mergeCell ref="D101:D107"/>
+    <mergeCell ref="E101:E107"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="B70:B80"/>
+    <mergeCell ref="E70:E80"/>
+    <mergeCell ref="D70:D80"/>
+    <mergeCell ref="C70:C80"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
     <mergeCell ref="B121:B123"/>
     <mergeCell ref="C121:C123"/>
     <mergeCell ref="D121:D123"/>
@@ -9172,84 +9225,31 @@
     <mergeCell ref="B125:B126"/>
     <mergeCell ref="C125:C126"/>
     <mergeCell ref="D125:D126"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="B70:B80"/>
-    <mergeCell ref="E70:E80"/>
-    <mergeCell ref="D70:D80"/>
-    <mergeCell ref="C70:C80"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E15:E20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E91:E97"/>
-    <mergeCell ref="D91:D97"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B101:B107"/>
-    <mergeCell ref="C101:C107"/>
-    <mergeCell ref="D101:D107"/>
-    <mergeCell ref="E101:E107"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="E141:E143"/>
+    <mergeCell ref="B145:B150"/>
+    <mergeCell ref="C145:C150"/>
+    <mergeCell ref="D145:D150"/>
+    <mergeCell ref="E145:E150"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="E157:E159"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="B166:B172"/>
+    <mergeCell ref="C166:C172"/>
+    <mergeCell ref="D166:D172"/>
+    <mergeCell ref="E166:E172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Documentacion/Plantilla Historias Usuario - Oficina de Proyectos de Informatica.xlsx
+++ b/Documentacion/Plantilla Historias Usuario - Oficina de Proyectos de Informatica.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\E-vote\E-vote-Backend\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USUARIO\Documents\Proyectos\E-vote\E-vote-Backend\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D411CC5-55BE-4B5B-8B1C-7587B30B4E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="318">
   <si>
     <t>Desarrollo ágil: Historias de usuario y criterios de aceptación</t>
   </si>
@@ -284,12 +283,6 @@
     <t>Cuando se de click en ver mas…(mensaje-emergente)</t>
   </si>
   <si>
-    <t>En caso que el aspirante seleccionado contenga toda la infomacion completa</t>
-  </si>
-  <si>
-    <t>En caso que el aspirante seleccionado contenga  infomacion incompleta</t>
-  </si>
-  <si>
     <t>cuando se de click en agregar como candidato</t>
   </si>
   <si>
@@ -659,9 +652,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>Necesito registrar un proceso de votacion</t>
   </si>
   <si>
     <r>
@@ -927,9 +917,6 @@
 -ver informacion del candidato
 -cerrar</t>
     </r>
-  </si>
-  <si>
-    <t>A continuacion se mostrara en la vista un mensaje emergente(aspirante resgistrado satisfacitroiamente como candidato)</t>
   </si>
   <si>
     <r>
@@ -1763,12 +1750,27 @@
   <si>
     <t>Como un candidato</t>
   </si>
+  <si>
+    <t>Necesito Consultar el proceso de votacion</t>
+  </si>
+  <si>
+    <t>En caso que el aspirante seleccionado contenga toda la infomacion incompleta</t>
+  </si>
+  <si>
+    <t>En caso que el aspirante seleccionado contenga  infomacion completa</t>
+  </si>
+  <si>
+    <t>A continuacion se mostrara en la vista un mensaje emergente(aspirante resgistrado satisfactoriamente como candidato)</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1832,8 +1834,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1856,6 +1865,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
         <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1980,7 +1995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2085,15 +2100,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2101,6 +2120,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2112,14 +2140,47 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2128,6 +2189,16 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2159,7 +2230,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2471,11 +2542,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J131" sqref="J131"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2592,18 +2663,18 @@
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="48" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="50"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2669,16 +2740,16 @@
     </row>
     <row r="6" spans="1:26" ht="58.15" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="38" t="s">
+      <c r="B6" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="46" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="17">
@@ -2694,7 +2765,7 @@
         <v>63</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2715,10 +2786,10 @@
     </row>
     <row r="7" spans="1:26" ht="57" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="17">
         <v>2</v>
       </c>
@@ -2732,7 +2803,7 @@
         <v>63</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2753,10 +2824,10 @@
     </row>
     <row r="8" spans="1:26" ht="131.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="17">
         <v>3</v>
       </c>
@@ -2770,7 +2841,7 @@
         <v>63</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2819,16 +2890,16 @@
     </row>
     <row r="10" spans="1:26" ht="45">
       <c r="A10" s="1"/>
-      <c r="B10" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="44" t="s">
+      <c r="B10" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="44" t="s">
+      <c r="D10" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" s="49" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="5">
@@ -2844,7 +2915,7 @@
         <v>23</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -2865,10 +2936,10 @@
     </row>
     <row r="11" spans="1:26" ht="52.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="5">
         <v>2</v>
       </c>
@@ -2882,7 +2953,7 @@
         <v>23</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -2903,10 +2974,10 @@
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="10">
         <v>3</v>
       </c>
@@ -2920,7 +2991,7 @@
         <v>23</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -2941,10 +3012,10 @@
     </row>
     <row r="13" spans="1:26" ht="49.9" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="10">
         <v>4</v>
       </c>
@@ -2952,13 +3023,13 @@
         <v>22</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -2981,7 +3052,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
       <c r="G14" s="7"/>
@@ -3007,16 +3078,16 @@
     </row>
     <row r="15" spans="1:26" ht="111" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="44" t="s">
+      <c r="B15" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="44" t="s">
+      <c r="D15" s="66" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" s="49" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="5">
@@ -3032,7 +3103,7 @@
         <v>33</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3053,10 +3124,10 @@
     </row>
     <row r="16" spans="1:26" ht="45">
       <c r="A16" s="1"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="10">
         <v>2</v>
       </c>
@@ -3070,7 +3141,7 @@
         <v>33</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3091,10 +3162,10 @@
     </row>
     <row r="17" spans="1:26" ht="111" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="10">
         <v>3</v>
       </c>
@@ -3108,7 +3179,7 @@
         <v>33</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3129,10 +3200,10 @@
     </row>
     <row r="18" spans="1:26" ht="55.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="10">
         <v>4</v>
       </c>
@@ -3146,7 +3217,7 @@
         <v>33</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3167,10 +3238,10 @@
     </row>
     <row r="19" spans="1:26" ht="105.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="10">
         <v>5</v>
       </c>
@@ -3184,7 +3255,7 @@
         <v>33</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -3205,10 +3276,10 @@
     </row>
     <row r="20" spans="1:26" ht="45">
       <c r="A20" s="1"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="10">
         <v>6</v>
       </c>
@@ -3222,7 +3293,7 @@
         <v>33</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -3245,13 +3316,13 @@
       <c r="A21" s="1"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="19"/>
       <c r="F21" s="10">
         <v>7</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>13</v>
@@ -3260,7 +3331,7 @@
         <v>33</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3309,16 +3380,16 @@
     </row>
     <row r="23" spans="1:26" ht="150">
       <c r="A23" s="1"/>
-      <c r="B23" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="44" t="s">
+      <c r="B23" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="44" t="s">
+      <c r="E23" s="49" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="10">
@@ -3355,10 +3426,10 @@
     </row>
     <row r="24" spans="1:26" ht="149.65" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="10">
         <v>2</v>
       </c>
@@ -3393,10 +3464,10 @@
     </row>
     <row r="25" spans="1:26" ht="135.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="10">
         <v>3</v>
       </c>
@@ -3459,16 +3530,16 @@
     </row>
     <row r="27" spans="1:26" ht="44.25" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="38" t="s">
+      <c r="B27" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="46" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="17">
@@ -3484,7 +3555,7 @@
         <v>48</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -3505,10 +3576,10 @@
     </row>
     <row r="28" spans="1:26" ht="45">
       <c r="A28" s="1"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="17">
         <v>2</v>
       </c>
@@ -3522,7 +3593,7 @@
         <v>48</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -3543,10 +3614,10 @@
     </row>
     <row r="29" spans="1:26" ht="36" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="17">
         <v>3</v>
       </c>
@@ -3560,7 +3631,7 @@
         <v>48</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3609,16 +3680,16 @@
     </row>
     <row r="31" spans="1:26" ht="58.15" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="51" t="s">
+      <c r="B31" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="67" t="s">
         <v>56</v>
       </c>
       <c r="F31" s="17">
@@ -3634,7 +3705,7 @@
         <v>53</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -3655,10 +3726,10 @@
     </row>
     <row r="32" spans="1:26" ht="57" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="17">
         <v>2</v>
       </c>
@@ -3672,7 +3743,7 @@
         <v>54</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3721,32 +3792,32 @@
     </row>
     <row r="34" spans="1:26" ht="90.75" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="38" t="s">
+      <c r="B34" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="E34" s="38" t="s">
+      <c r="D34" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="40">
         <v>1</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="J34" s="16" t="s">
-        <v>219</v>
+      <c r="J34" s="41" t="s">
+        <v>215</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3767,23 +3838,23 @@
     </row>
     <row r="35" spans="1:26" ht="57" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="17">
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="40">
         <v>2</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="J35" s="41" t="s">
         <v>70</v>
       </c>
       <c r="K35" s="1"/>
@@ -3805,24 +3876,24 @@
     </row>
     <row r="36" spans="1:26" ht="57" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="17">
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="40">
         <v>3</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="I36" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="J36" s="16" t="s">
-        <v>218</v>
+      <c r="J36" s="41" t="s">
+        <v>214</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -3871,23 +3942,23 @@
     </row>
     <row r="38" spans="1:26" ht="77.45" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="38" t="s">
+      <c r="B38" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="38" t="s">
-        <v>250</v>
+      <c r="E38" s="46" t="s">
+        <v>246</v>
       </c>
       <c r="F38" s="17">
         <v>1</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H38" s="16" t="s">
         <v>73</v>
@@ -3896,7 +3967,7 @@
         <v>74</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -3917,24 +3988,24 @@
     </row>
     <row r="39" spans="1:26" ht="180" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="17">
         <v>2</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>74</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -3955,13 +4026,13 @@
     </row>
     <row r="40" spans="1:26" ht="189.6" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="39"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="17"/>
       <c r="G40" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H40" s="16" t="s">
         <v>78</v>
@@ -3970,7 +4041,7 @@
         <v>79</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -4017,89 +4088,89 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="58.15" customHeight="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="45" t="s">
+    <row r="42" spans="1:26" s="71" customFormat="1" ht="58.15" customHeight="1">
+      <c r="A42" s="42"/>
+      <c r="B42" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="40">
         <v>1</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="I42" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="I42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-    </row>
-    <row r="43" spans="1:26" ht="57" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="17">
+      <c r="J42" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="42"/>
+      <c r="Z42" s="42"/>
+    </row>
+    <row r="43" spans="1:26" s="71" customFormat="1" ht="57" customHeight="1">
+      <c r="A43" s="42"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="40">
         <v>2</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="H43" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J43" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
+      <c r="H43" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="I43" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="42"/>
     </row>
     <row r="44" spans="1:26">
       <c r="A44" s="1"/>
@@ -4132,16 +4203,16 @@
     <row r="45" spans="1:26" ht="74.45" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F45" s="17">
         <v>1</v>
@@ -4153,10 +4224,10 @@
         <v>13</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -4205,34 +4276,34 @@
     </row>
     <row r="47" spans="1:26" ht="90.75" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="38" t="s">
+      <c r="B47" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="40">
+        <v>1</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="17">
-        <v>1</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J47" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="K47" s="1"/>
+      <c r="I47" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="J47" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="K47" s="42"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -4251,26 +4322,26 @@
     </row>
     <row r="48" spans="1:26" ht="57" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="17">
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="40">
         <v>2</v>
       </c>
-      <c r="G48" s="20" t="s">
+      <c r="G48" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H48" s="20" t="s">
+      <c r="H48" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I48" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="I48" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J48" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="K48" s="1"/>
+      <c r="J48" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="K48" s="42"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -4289,26 +4360,26 @@
     </row>
     <row r="49" spans="1:26" ht="57" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="17">
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="40">
         <v>3</v>
       </c>
-      <c r="G49" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="H49" s="16" t="s">
+      <c r="G49" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J49" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="K49" s="1"/>
+      <c r="I49" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="J49" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="K49" s="42"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -4356,16 +4427,16 @@
     <row r="51" spans="1:26" ht="155.25" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C51" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F51" s="17">
         <v>1</v>
@@ -4377,10 +4448,10 @@
         <v>13</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -4429,32 +4500,32 @@
     </row>
     <row r="53" spans="1:26" ht="58.15" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="45" t="s">
+      <c r="B53" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="E53" s="45" t="s">
-        <v>94</v>
+      <c r="D53" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>92</v>
       </c>
       <c r="F53" s="17">
         <v>1</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H53" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="I53" s="20" t="s">
-        <v>98</v>
-      </c>
       <c r="J53" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -4475,24 +4546,24 @@
     </row>
     <row r="54" spans="1:26" ht="58.15" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="17">
         <v>2</v>
       </c>
       <c r="G54" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H54" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H54" s="20" t="s">
-        <v>97</v>
-      </c>
       <c r="I54" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J54" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -4513,24 +4584,24 @@
     </row>
     <row r="55" spans="1:26" ht="58.15" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="51"/>
       <c r="F55" s="17">
         <v>3</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H55" s="20" t="s">
         <v>47</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -4580,31 +4651,31 @@
     <row r="57" spans="1:26" ht="91.5" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C57" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F57" s="17">
         <v>1</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H57" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -4654,31 +4725,31 @@
     <row r="59" spans="1:26" ht="48" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C59" s="29" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F59" s="17">
         <v>1</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H59" s="28" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I59" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J59" s="23" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -4707,16 +4778,16 @@
         <v>2</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H60" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I60" s="28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J60" s="28" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -4765,32 +4836,32 @@
     </row>
     <row r="62" spans="1:26" ht="48" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" s="38" t="s">
+      <c r="B62" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>109</v>
+      <c r="D62" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" s="46" t="s">
+        <v>107</v>
       </c>
       <c r="F62" s="17">
         <v>1</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H62" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I62" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -4811,24 +4882,24 @@
     </row>
     <row r="63" spans="1:26" ht="53.25" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
       <c r="F63" s="17">
         <v>2</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H63" s="20" t="s">
         <v>47</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J63" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -4878,31 +4949,31 @@
     <row r="65" spans="1:26" ht="93" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F65" s="17">
         <v>1</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H65" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J65" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -4951,32 +5022,32 @@
     </row>
     <row r="67" spans="1:26" ht="63" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="46" t="s">
         <v>131</v>
-      </c>
-      <c r="C67" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>133</v>
       </c>
       <c r="F67" s="17">
         <v>1</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H67" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I67" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J67" s="23" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -4997,24 +5068,24 @@
     </row>
     <row r="68" spans="1:26" ht="50.25" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
       <c r="F68" s="17">
         <v>2</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H68" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I68" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="I68" s="20" t="s">
-        <v>137</v>
-      </c>
       <c r="J68" s="20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -5063,32 +5134,32 @@
     </row>
     <row r="70" spans="1:26" ht="80.25" customHeight="1">
       <c r="A70" s="1"/>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="54" t="s">
         <v>138</v>
-      </c>
-      <c r="C70" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>140</v>
       </c>
       <c r="F70" s="17">
         <v>1</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H70" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I70" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J70" s="20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -5109,24 +5180,24 @@
     </row>
     <row r="71" spans="1:26" ht="34.15" customHeight="1">
       <c r="A71" s="1"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
       <c r="F71" s="17">
         <v>2</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H71" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I71" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="I71" s="20" t="s">
-        <v>151</v>
-      </c>
       <c r="J71" s="20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -5147,24 +5218,24 @@
     </row>
     <row r="72" spans="1:26" ht="79.5" customHeight="1">
       <c r="A72" s="1"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
       <c r="F72" s="17">
         <v>3</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H72" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I72" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J72" s="28" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -5185,24 +5256,24 @@
     </row>
     <row r="73" spans="1:26" ht="34.15" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
       <c r="F73" s="17">
         <v>4</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I73" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J73" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -5223,24 +5294,24 @@
     </row>
     <row r="74" spans="1:26" ht="77.25" customHeight="1">
       <c r="A74" s="1"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
       <c r="F74" s="17">
         <v>5</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I74" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J74" s="28" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -5261,24 +5332,24 @@
     </row>
     <row r="75" spans="1:26" ht="28.9" customHeight="1">
       <c r="A75" s="1"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
       <c r="F75" s="17">
         <v>6</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I75" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J75" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -5299,24 +5370,24 @@
     </row>
     <row r="76" spans="1:26" ht="75.599999999999994" customHeight="1">
       <c r="A76" s="1"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
       <c r="F76" s="17">
         <v>7</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H76" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I76" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J76" s="28" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -5337,24 +5408,24 @@
     </row>
     <row r="77" spans="1:26" ht="29.45" customHeight="1">
       <c r="A77" s="1"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="40"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
       <c r="F77" s="17">
         <v>8</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H77" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I77" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J77" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -5375,24 +5446,24 @@
     </row>
     <row r="78" spans="1:26" ht="78.75" customHeight="1">
       <c r="A78" s="1"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="40"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="40"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
       <c r="F78" s="17">
         <v>9</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H78" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I78" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J78" s="28" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -5413,24 +5484,24 @@
     </row>
     <row r="79" spans="1:26" ht="29.45" customHeight="1">
       <c r="A79" s="1"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="40"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
       <c r="F79" s="17">
         <v>10</v>
       </c>
       <c r="G79" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H79" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I79" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J79" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -5451,24 +5522,24 @@
     </row>
     <row r="80" spans="1:26" ht="29.45" customHeight="1">
       <c r="A80" s="1"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
       <c r="F80" s="17">
         <v>11</v>
       </c>
       <c r="G80" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H80" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I80" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J80" s="20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -5518,22 +5589,22 @@
     <row r="82" spans="1:26" ht="180">
       <c r="A82" s="1"/>
       <c r="B82" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C82" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" s="10">
         <v>1</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H82" s="12" t="s">
         <v>13</v>
@@ -5542,7 +5613,7 @@
         <v>37</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -5591,32 +5662,32 @@
     </row>
     <row r="84" spans="1:26" ht="46.5" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="C84" s="38" t="s">
+      <c r="B84" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="E84" s="38" t="s">
+      <c r="D84" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="E84" s="73" t="s">
         <v>49</v>
       </c>
       <c r="F84" s="17">
         <v>1</v>
       </c>
       <c r="G84" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H84" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="I84" s="20" t="s">
         <v>48</v>
       </c>
       <c r="J84" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -5637,15 +5708,15 @@
     </row>
     <row r="85" spans="1:26" ht="45">
       <c r="A85" s="1"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="40"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="74"/>
+      <c r="E85" s="74"/>
       <c r="F85" s="17">
         <v>2</v>
       </c>
       <c r="G85" s="28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H85" s="20" t="s">
         <v>47</v>
@@ -5654,7 +5725,7 @@
         <v>48</v>
       </c>
       <c r="J85" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -5675,24 +5746,24 @@
     </row>
     <row r="86" spans="1:26" ht="46.9" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="74"/>
       <c r="F86" s="17">
         <v>3</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H86" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I86" s="20" t="s">
         <v>48</v>
       </c>
       <c r="J86" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -5741,32 +5812,32 @@
     </row>
     <row r="88" spans="1:26" ht="58.15" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="51" t="s">
+      <c r="B88" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88" s="67" t="s">
         <v>166</v>
-      </c>
-      <c r="C88" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="E88" s="51" t="s">
-        <v>168</v>
       </c>
       <c r="F88" s="17">
         <v>1</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I88" s="20" t="s">
         <v>53</v>
       </c>
       <c r="J88" s="20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -5787,24 +5858,24 @@
     </row>
     <row r="89" spans="1:26" ht="57" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="52"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="68"/>
       <c r="F89" s="17">
         <v>2</v>
       </c>
       <c r="G89" s="28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H89" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I89" s="20" t="s">
         <v>54</v>
       </c>
       <c r="J89" s="20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -5853,17 +5924,17 @@
     </row>
     <row r="91" spans="1:26" ht="111.75" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="C91" s="38" t="s">
+      <c r="B91" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E91" s="38" t="s">
-        <v>171</v>
+      <c r="D91" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E91" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="F91" s="17">
         <v>1</v>
@@ -5872,13 +5943,13 @@
         <v>22</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -5899,10 +5970,10 @@
     </row>
     <row r="92" spans="1:26" ht="51" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
       <c r="F92" s="17">
         <v>2</v>
       </c>
@@ -5910,13 +5981,13 @@
         <v>22</v>
       </c>
       <c r="H92" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="I92" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="I92" s="25" t="s">
-        <v>176</v>
-      </c>
       <c r="J92" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -5937,10 +6008,10 @@
     </row>
     <row r="93" spans="1:26" ht="93.6" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
       <c r="F93" s="17">
         <v>3</v>
       </c>
@@ -5948,13 +6019,13 @@
         <v>27</v>
       </c>
       <c r="H93" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I93" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -5975,10 +6046,10 @@
     </row>
     <row r="94" spans="1:26" ht="45" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
       <c r="F94" s="17">
         <v>4</v>
       </c>
@@ -5986,13 +6057,13 @@
         <v>27</v>
       </c>
       <c r="H94" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I94" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="I94" s="25" t="s">
-        <v>176</v>
-      </c>
       <c r="J94" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -6013,10 +6084,10 @@
     </row>
     <row r="95" spans="1:26" ht="89.45" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
       <c r="F95" s="17">
         <v>5</v>
       </c>
@@ -6024,13 +6095,13 @@
         <v>28</v>
       </c>
       <c r="H95" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -6051,10 +6122,10 @@
     </row>
     <row r="96" spans="1:26" ht="53.25" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="40"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47"/>
       <c r="F96" s="17">
         <v>6</v>
       </c>
@@ -6062,13 +6133,13 @@
         <v>28</v>
       </c>
       <c r="H96" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I96" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="I96" s="25" t="s">
-        <v>176</v>
-      </c>
       <c r="J96" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -6089,24 +6160,24 @@
     </row>
     <row r="97" spans="1:26" ht="39" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
       <c r="F97" s="17">
         <v>7</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H97" s="22" t="s">
         <v>13</v>
       </c>
       <c r="I97" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J97" s="25" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -6156,31 +6227,31 @@
     <row r="99" spans="1:26" ht="273.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E99" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F99" s="17">
         <v>1</v>
       </c>
       <c r="G99" s="25" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H99" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I99" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -6229,17 +6300,17 @@
     </row>
     <row r="101" spans="1:26" ht="123" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="C101" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="D101" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="E101" s="41" t="s">
-        <v>249</v>
+      <c r="B101" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="E101" s="43" t="s">
+        <v>245</v>
       </c>
       <c r="F101" s="17">
         <v>1</v>
@@ -6248,13 +6319,13 @@
         <v>22</v>
       </c>
       <c r="H101" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I101" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -6275,10 +6346,10 @@
     </row>
     <row r="102" spans="1:26" ht="60">
       <c r="A102" s="1"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="53"/>
-      <c r="E102" s="53"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="69"/>
       <c r="F102" s="17">
         <v>2</v>
       </c>
@@ -6286,13 +6357,13 @@
         <v>22</v>
       </c>
       <c r="H102" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="I102" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="I102" s="28" t="s">
-        <v>176</v>
-      </c>
       <c r="J102" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -6313,10 +6384,10 @@
     </row>
     <row r="103" spans="1:26" ht="93.6" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="53"/>
+      <c r="B103" s="69"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="69"/>
       <c r="F103" s="17">
         <v>3</v>
       </c>
@@ -6324,13 +6395,13 @@
         <v>27</v>
       </c>
       <c r="H103" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I103" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -6351,10 +6422,10 @@
     </row>
     <row r="104" spans="1:26" ht="60">
       <c r="A104" s="1"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="53"/>
-      <c r="E104" s="53"/>
+      <c r="B104" s="69"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="69"/>
+      <c r="E104" s="69"/>
       <c r="F104" s="17">
         <v>4</v>
       </c>
@@ -6362,13 +6433,13 @@
         <v>27</v>
       </c>
       <c r="H104" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="I104" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="I104" s="28" t="s">
-        <v>176</v>
-      </c>
       <c r="J104" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -6389,10 +6460,10 @@
     </row>
     <row r="105" spans="1:26" ht="75">
       <c r="A105" s="1"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="53"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="69"/>
       <c r="F105" s="17">
         <v>5</v>
       </c>
@@ -6400,13 +6471,13 @@
         <v>28</v>
       </c>
       <c r="H105" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I105" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -6427,10 +6498,10 @@
     </row>
     <row r="106" spans="1:26" ht="60">
       <c r="A106" s="1"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="53"/>
-      <c r="D106" s="53"/>
-      <c r="E106" s="53"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="69"/>
+      <c r="E106" s="69"/>
       <c r="F106" s="17">
         <v>6</v>
       </c>
@@ -6438,13 +6509,13 @@
         <v>28</v>
       </c>
       <c r="H106" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="I106" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="I106" s="28" t="s">
-        <v>176</v>
-      </c>
       <c r="J106" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -6465,24 +6536,24 @@
     </row>
     <row r="107" spans="1:26" ht="48.6" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="54"/>
-      <c r="C107" s="54"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="54"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="70"/>
       <c r="F107" s="17">
         <v>7</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H107" s="28" t="s">
         <v>13</v>
       </c>
       <c r="I107" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J107" s="28" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -6532,31 +6603,31 @@
     <row r="109" spans="1:26" ht="217.5" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C109" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>183</v>
       </c>
       <c r="D109" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F109" s="17">
         <v>1</v>
       </c>
       <c r="G109" s="28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H109" s="28" t="s">
         <v>13</v>
       </c>
       <c r="I109" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -6605,16 +6676,16 @@
     </row>
     <row r="111" spans="1:26" ht="47.25" customHeight="1">
       <c r="A111" s="1"/>
-      <c r="B111" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C111" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="D111" s="38" t="s">
+      <c r="B111" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C111" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="D111" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E111" s="38" t="s">
+      <c r="E111" s="46" t="s">
         <v>58</v>
       </c>
       <c r="F111" s="17">
@@ -6630,7 +6701,7 @@
         <v>63</v>
       </c>
       <c r="J111" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -6651,10 +6722,10 @@
     </row>
     <row r="112" spans="1:26" ht="56.25" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="40"/>
-      <c r="C112" s="40"/>
-      <c r="D112" s="40"/>
-      <c r="E112" s="40"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
       <c r="F112" s="17">
         <v>2</v>
       </c>
@@ -6668,7 +6739,7 @@
         <v>63</v>
       </c>
       <c r="J112" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -6689,10 +6760,10 @@
     </row>
     <row r="113" spans="1:26" ht="72" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
+      <c r="B113" s="48"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="48"/>
       <c r="F113" s="17">
         <v>3</v>
       </c>
@@ -6706,7 +6777,7 @@
         <v>63</v>
       </c>
       <c r="J113" s="28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -6755,32 +6826,32 @@
     </row>
     <row r="115" spans="1:26" ht="63" customHeight="1">
       <c r="A115" s="1"/>
-      <c r="B115" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C115" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="D115" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="E115" s="38" t="s">
-        <v>255</v>
+      <c r="B115" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="C115" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D115" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E115" s="46" t="s">
+        <v>251</v>
       </c>
       <c r="F115" s="17">
         <v>1</v>
       </c>
       <c r="G115" s="28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H115" s="28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I115" s="28" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J115" s="23" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -6801,24 +6872,24 @@
     </row>
     <row r="116" spans="1:26" ht="50.25" customHeight="1">
       <c r="A116" s="1"/>
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="40"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47"/>
       <c r="F116" s="17">
         <v>2</v>
       </c>
       <c r="G116" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="H116" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I116" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="J116" s="28" t="s">
         <v>256</v>
-      </c>
-      <c r="H116" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="I116" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="J116" s="28" t="s">
-        <v>260</v>
       </c>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -6867,17 +6938,17 @@
     </row>
     <row r="118" spans="1:26" ht="47.25" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="C118" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="D118" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="E118" s="38" t="s">
+      <c r="B118" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C118" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D118" s="46" t="s">
         <v>261</v>
+      </c>
+      <c r="E118" s="46" t="s">
+        <v>257</v>
       </c>
       <c r="F118" s="17">
         <v>1</v>
@@ -6886,13 +6957,13 @@
         <v>13</v>
       </c>
       <c r="H118" s="28" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I118" s="28" t="s">
         <v>48</v>
       </c>
       <c r="J118" s="28" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -6913,10 +6984,10 @@
     </row>
     <row r="119" spans="1:26" ht="46.5" customHeight="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="40"/>
-      <c r="C119" s="40"/>
-      <c r="D119" s="40"/>
-      <c r="E119" s="40"/>
+      <c r="B119" s="47"/>
+      <c r="C119" s="47"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="47"/>
       <c r="F119" s="17">
         <v>2</v>
       </c>
@@ -6930,7 +7001,7 @@
         <v>48</v>
       </c>
       <c r="J119" s="28" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -6979,16 +7050,16 @@
     </row>
     <row r="121" spans="1:26" ht="47.25" customHeight="1">
       <c r="A121" s="1"/>
-      <c r="B121" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="C121" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="D121" s="38" t="s">
+      <c r="B121" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="C121" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="D121" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E121" s="38" t="s">
+      <c r="E121" s="46" t="s">
         <v>58</v>
       </c>
       <c r="F121" s="17">
@@ -7004,7 +7075,7 @@
         <v>63</v>
       </c>
       <c r="J121" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
@@ -7025,10 +7096,10 @@
     </row>
     <row r="122" spans="1:26" ht="56.25" customHeight="1">
       <c r="A122" s="1"/>
-      <c r="B122" s="40"/>
-      <c r="C122" s="40"/>
-      <c r="D122" s="40"/>
-      <c r="E122" s="40"/>
+      <c r="B122" s="47"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="47"/>
+      <c r="E122" s="47"/>
       <c r="F122" s="17">
         <v>2</v>
       </c>
@@ -7042,7 +7113,7 @@
         <v>63</v>
       </c>
       <c r="J122" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -7063,10 +7134,10 @@
     </row>
     <row r="123" spans="1:26" ht="77.25" customHeight="1">
       <c r="A123" s="1"/>
-      <c r="B123" s="39"/>
-      <c r="C123" s="39"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="39"/>
+      <c r="B123" s="48"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="48"/>
+      <c r="E123" s="48"/>
       <c r="F123" s="17">
         <v>3</v>
       </c>
@@ -7080,7 +7151,7 @@
         <v>63</v>
       </c>
       <c r="J123" s="28" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -7129,17 +7200,17 @@
     </row>
     <row r="125" spans="1:26" ht="47.25" customHeight="1">
       <c r="A125" s="1"/>
-      <c r="B125" s="38" t="s">
-        <v>188</v>
-      </c>
-      <c r="C125" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="D125" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="E125" s="38" t="s">
+      <c r="B125" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C125" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="D125" s="46" t="s">
         <v>261</v>
+      </c>
+      <c r="E125" s="46" t="s">
+        <v>257</v>
       </c>
       <c r="F125" s="17">
         <v>1</v>
@@ -7148,13 +7219,13 @@
         <v>13</v>
       </c>
       <c r="H125" s="28" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I125" s="28" t="s">
         <v>48</v>
       </c>
       <c r="J125" s="28" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -7175,10 +7246,10 @@
     </row>
     <row r="126" spans="1:26" ht="46.5" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="40"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="40"/>
-      <c r="E126" s="40"/>
+      <c r="B126" s="47"/>
+      <c r="C126" s="47"/>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47"/>
       <c r="F126" s="17">
         <v>2</v>
       </c>
@@ -7192,7 +7263,7 @@
         <v>48</v>
       </c>
       <c r="J126" s="28" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -7242,31 +7313,31 @@
     <row r="128" spans="1:26" ht="63" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E128" s="29" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F128" s="17">
         <v>1</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H128" s="28" t="s">
         <v>13</v>
       </c>
       <c r="I128" s="28" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J128" s="28" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -7315,17 +7386,17 @@
     </row>
     <row r="130" spans="1:26" ht="91.5" customHeight="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C130" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="D130" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="E130" s="41" t="s">
-        <v>273</v>
+      <c r="B130" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="C130" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="D130" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="E130" s="43" t="s">
+        <v>269</v>
       </c>
       <c r="F130" s="10">
         <v>1</v>
@@ -7334,13 +7405,13 @@
         <v>13</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="I130" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J130" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -7361,10 +7432,10 @@
     </row>
     <row r="131" spans="1:26" ht="60.75" customHeight="1">
       <c r="A131" s="1"/>
-      <c r="B131" s="42"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="42"/>
-      <c r="E131" s="42"/>
+      <c r="B131" s="44"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="44"/>
+      <c r="E131" s="44"/>
       <c r="F131" s="10">
         <v>2</v>
       </c>
@@ -7372,13 +7443,13 @@
         <v>13</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I131" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -7407,7 +7478,7 @@
         <v>3</v>
       </c>
       <c r="G132" s="28" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H132" s="28" t="s">
         <v>13</v>
@@ -7416,7 +7487,7 @@
         <v>66</v>
       </c>
       <c r="J132" s="28" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -7466,31 +7537,31 @@
     <row r="134" spans="1:26" ht="116.25" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="31" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F134" s="17">
         <v>1</v>
       </c>
       <c r="G134" s="28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H134" s="28" t="s">
         <v>13</v>
       </c>
       <c r="I134" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J134" s="28" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -7539,32 +7610,32 @@
     </row>
     <row r="136" spans="1:26" ht="48" customHeight="1">
       <c r="A136" s="1"/>
-      <c r="B136" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="C136" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="D136" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="E136" s="38" t="s">
-        <v>109</v>
+      <c r="B136" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="C136" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="D136" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="E136" s="46" t="s">
+        <v>107</v>
       </c>
       <c r="F136" s="17">
         <v>1</v>
       </c>
       <c r="G136" s="28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H136" s="28" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I136" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J136" s="28" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -7585,24 +7656,24 @@
     </row>
     <row r="137" spans="1:26" ht="53.25" customHeight="1">
       <c r="A137" s="1"/>
-      <c r="B137" s="40"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="40"/>
-      <c r="E137" s="40"/>
+      <c r="B137" s="47"/>
+      <c r="C137" s="47"/>
+      <c r="D137" s="47"/>
+      <c r="E137" s="47"/>
       <c r="F137" s="17">
         <v>2</v>
       </c>
       <c r="G137" s="28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H137" s="28" t="s">
         <v>47</v>
       </c>
       <c r="I137" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J137" s="28" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -7652,31 +7723,31 @@
     <row r="139" spans="1:26" ht="93" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="31" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C139" s="31" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E139" s="37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F139" s="17">
         <v>1</v>
       </c>
       <c r="G139" s="28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H139" s="28" t="s">
         <v>13</v>
       </c>
       <c r="I139" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J139" s="28" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -7725,16 +7796,16 @@
     </row>
     <row r="141" spans="1:26" ht="47.25" customHeight="1">
       <c r="A141" s="1"/>
-      <c r="B141" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="C141" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="D141" s="38" t="s">
+      <c r="B141" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="C141" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D141" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E141" s="38" t="s">
+      <c r="E141" s="46" t="s">
         <v>58</v>
       </c>
       <c r="F141" s="17">
@@ -7750,7 +7821,7 @@
         <v>63</v>
       </c>
       <c r="J141" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -7771,10 +7842,10 @@
     </row>
     <row r="142" spans="1:26" ht="56.25" customHeight="1">
       <c r="A142" s="1"/>
-      <c r="B142" s="40"/>
-      <c r="C142" s="40"/>
-      <c r="D142" s="40"/>
-      <c r="E142" s="40"/>
+      <c r="B142" s="47"/>
+      <c r="C142" s="47"/>
+      <c r="D142" s="47"/>
+      <c r="E142" s="47"/>
       <c r="F142" s="17">
         <v>2</v>
       </c>
@@ -7788,7 +7859,7 @@
         <v>63</v>
       </c>
       <c r="J142" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -7809,10 +7880,10 @@
     </row>
     <row r="143" spans="1:26" ht="96" customHeight="1">
       <c r="A143" s="1"/>
-      <c r="B143" s="39"/>
-      <c r="C143" s="39"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="39"/>
+      <c r="B143" s="48"/>
+      <c r="C143" s="48"/>
+      <c r="D143" s="48"/>
+      <c r="E143" s="48"/>
       <c r="F143" s="17">
         <v>3</v>
       </c>
@@ -7826,7 +7897,7 @@
         <v>63</v>
       </c>
       <c r="J143" s="28" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -7875,17 +7946,17 @@
     </row>
     <row r="145" spans="1:26" ht="111" customHeight="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="C145" s="44" t="s">
+      <c r="B145" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="D145" s="44" t="s">
+      <c r="C145" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="D145" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E145" s="41" t="s">
-        <v>296</v>
+      <c r="E145" s="43" t="s">
+        <v>292</v>
       </c>
       <c r="F145" s="10">
         <v>1</v>
@@ -7900,7 +7971,7 @@
         <v>33</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -7921,10 +7992,10 @@
     </row>
     <row r="146" spans="1:26" ht="45">
       <c r="A146" s="1"/>
-      <c r="B146" s="42"/>
-      <c r="C146" s="42"/>
-      <c r="D146" s="42"/>
-      <c r="E146" s="42"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="44"/>
+      <c r="E146" s="44"/>
       <c r="F146" s="10">
         <v>2</v>
       </c>
@@ -7938,7 +8009,7 @@
         <v>33</v>
       </c>
       <c r="J146" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -7959,10 +8030,10 @@
     </row>
     <row r="147" spans="1:26" ht="111" customHeight="1">
       <c r="A147" s="1"/>
-      <c r="B147" s="42"/>
-      <c r="C147" s="42"/>
-      <c r="D147" s="42"/>
-      <c r="E147" s="42"/>
+      <c r="B147" s="44"/>
+      <c r="C147" s="44"/>
+      <c r="D147" s="44"/>
+      <c r="E147" s="44"/>
       <c r="F147" s="10">
         <v>3</v>
       </c>
@@ -7976,7 +8047,7 @@
         <v>33</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -7997,10 +8068,10 @@
     </row>
     <row r="148" spans="1:26" ht="55.5" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="42"/>
-      <c r="C148" s="42"/>
-      <c r="D148" s="42"/>
-      <c r="E148" s="42"/>
+      <c r="B148" s="44"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="44"/>
+      <c r="E148" s="44"/>
       <c r="F148" s="10">
         <v>4</v>
       </c>
@@ -8014,7 +8085,7 @@
         <v>33</v>
       </c>
       <c r="J148" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -8035,10 +8106,10 @@
     </row>
     <row r="149" spans="1:26" ht="105.75" customHeight="1">
       <c r="A149" s="1"/>
-      <c r="B149" s="42"/>
-      <c r="C149" s="42"/>
-      <c r="D149" s="42"/>
-      <c r="E149" s="42"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="44"/>
+      <c r="E149" s="44"/>
       <c r="F149" s="10">
         <v>5</v>
       </c>
@@ -8052,7 +8123,7 @@
         <v>33</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -8073,10 +8144,10 @@
     </row>
     <row r="150" spans="1:26" ht="45">
       <c r="A150" s="1"/>
-      <c r="B150" s="43"/>
-      <c r="C150" s="43"/>
-      <c r="D150" s="43"/>
-      <c r="E150" s="43"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
       <c r="F150" s="10">
         <v>6</v>
       </c>
@@ -8090,7 +8161,7 @@
         <v>33</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -8119,7 +8190,7 @@
         <v>7</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H151" s="24" t="s">
         <v>13</v>
@@ -8128,7 +8199,7 @@
         <v>33</v>
       </c>
       <c r="J151" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
@@ -8177,16 +8248,16 @@
     </row>
     <row r="153" spans="1:26" ht="135" customHeight="1">
       <c r="A153" s="1"/>
-      <c r="B153" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="C153" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="D153" s="44" t="s">
+      <c r="B153" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="C153" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D153" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E153" s="44" t="s">
+      <c r="E153" s="49" t="s">
         <v>35</v>
       </c>
       <c r="F153" s="10">
@@ -8223,10 +8294,10 @@
     </row>
     <row r="154" spans="1:26" ht="149.65" customHeight="1">
       <c r="A154" s="1"/>
-      <c r="B154" s="42"/>
-      <c r="C154" s="40"/>
-      <c r="D154" s="42"/>
-      <c r="E154" s="42"/>
+      <c r="B154" s="44"/>
+      <c r="C154" s="47"/>
+      <c r="D154" s="44"/>
+      <c r="E154" s="44"/>
       <c r="F154" s="10">
         <v>2</v>
       </c>
@@ -8261,10 +8332,10 @@
     </row>
     <row r="155" spans="1:26" ht="135.75" customHeight="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="43"/>
-      <c r="C155" s="39"/>
-      <c r="D155" s="43"/>
-      <c r="E155" s="43"/>
+      <c r="B155" s="45"/>
+      <c r="C155" s="48"/>
+      <c r="D155" s="45"/>
+      <c r="E155" s="45"/>
       <c r="F155" s="10">
         <v>3</v>
       </c>
@@ -8327,17 +8398,17 @@
     </row>
     <row r="157" spans="1:26" ht="90.75" customHeight="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="C157" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="D157" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E157" s="38" t="s">
-        <v>84</v>
+      <c r="B157" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="C157" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D157" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E157" s="46" t="s">
+        <v>82</v>
       </c>
       <c r="F157" s="17">
         <v>1</v>
@@ -8346,13 +8417,13 @@
         <v>67</v>
       </c>
       <c r="H157" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I157" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J157" s="28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -8373,10 +8444,10 @@
     </row>
     <row r="158" spans="1:26" ht="57" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="40"/>
-      <c r="C158" s="40"/>
-      <c r="D158" s="40"/>
-      <c r="E158" s="40"/>
+      <c r="B158" s="47"/>
+      <c r="C158" s="47"/>
+      <c r="D158" s="47"/>
+      <c r="E158" s="47"/>
       <c r="F158" s="17">
         <v>2</v>
       </c>
@@ -8384,13 +8455,13 @@
         <v>67</v>
       </c>
       <c r="H158" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I158" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I158" s="28" t="s">
-        <v>88</v>
-      </c>
       <c r="J158" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -8411,24 +8482,24 @@
     </row>
     <row r="159" spans="1:26" ht="57" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="39"/>
-      <c r="C159" s="39"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="39"/>
+      <c r="B159" s="48"/>
+      <c r="C159" s="48"/>
+      <c r="D159" s="48"/>
+      <c r="E159" s="48"/>
       <c r="F159" s="17">
         <v>3</v>
       </c>
       <c r="G159" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H159" s="28" t="s">
         <v>13</v>
       </c>
       <c r="I159" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J159" s="28" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
@@ -8478,16 +8549,16 @@
     <row r="161" spans="1:26" ht="122.25" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="31" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D161" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F161" s="17">
         <v>1</v>
@@ -8499,10 +8570,10 @@
         <v>13</v>
       </c>
       <c r="I161" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J161" s="28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
@@ -8552,31 +8623,31 @@
     <row r="163" spans="1:26" ht="48" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="C163" s="38" t="s">
-        <v>297</v>
+        <v>300</v>
+      </c>
+      <c r="C163" s="46" t="s">
+        <v>293</v>
       </c>
       <c r="D163" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E163" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F163" s="17">
         <v>1</v>
       </c>
       <c r="G163" s="28" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H163" s="28" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I163" s="28" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J163" s="23" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
@@ -8598,23 +8669,23 @@
     <row r="164" spans="1:26" ht="95.25" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="30"/>
-      <c r="C164" s="40"/>
+      <c r="C164" s="47"/>
       <c r="D164" s="30"/>
       <c r="E164" s="30"/>
       <c r="F164" s="17">
         <v>2</v>
       </c>
       <c r="G164" s="28" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H164" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I164" s="28" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J164" s="28" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
@@ -8663,17 +8734,17 @@
     </row>
     <row r="166" spans="1:26" ht="75.75" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="C166" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="D166" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E166" s="38" t="s">
-        <v>171</v>
+      <c r="B166" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="C166" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D166" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E166" s="46" t="s">
+        <v>169</v>
       </c>
       <c r="F166" s="17">
         <v>1</v>
@@ -8682,13 +8753,13 @@
         <v>22</v>
       </c>
       <c r="H166" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I166" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
@@ -8709,10 +8780,10 @@
     </row>
     <row r="167" spans="1:26" ht="44.25" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="40"/>
-      <c r="C167" s="40"/>
-      <c r="D167" s="40"/>
-      <c r="E167" s="40"/>
+      <c r="B167" s="47"/>
+      <c r="C167" s="47"/>
+      <c r="D167" s="47"/>
+      <c r="E167" s="47"/>
       <c r="F167" s="17">
         <v>2</v>
       </c>
@@ -8720,13 +8791,13 @@
         <v>22</v>
       </c>
       <c r="H167" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="I167" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="I167" s="28" t="s">
-        <v>176</v>
-      </c>
       <c r="J167" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
@@ -8747,10 +8818,10 @@
     </row>
     <row r="168" spans="1:26" ht="79.5" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="40"/>
-      <c r="C168" s="40"/>
-      <c r="D168" s="40"/>
-      <c r="E168" s="40"/>
+      <c r="B168" s="47"/>
+      <c r="C168" s="47"/>
+      <c r="D168" s="47"/>
+      <c r="E168" s="47"/>
       <c r="F168" s="17">
         <v>3</v>
       </c>
@@ -8758,13 +8829,13 @@
         <v>27</v>
       </c>
       <c r="H168" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I168" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -8785,10 +8856,10 @@
     </row>
     <row r="169" spans="1:26" ht="46.5" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="40"/>
-      <c r="C169" s="40"/>
-      <c r="D169" s="40"/>
-      <c r="E169" s="40"/>
+      <c r="B169" s="47"/>
+      <c r="C169" s="47"/>
+      <c r="D169" s="47"/>
+      <c r="E169" s="47"/>
       <c r="F169" s="17">
         <v>4</v>
       </c>
@@ -8796,13 +8867,13 @@
         <v>27</v>
       </c>
       <c r="H169" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="I169" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="I169" s="28" t="s">
-        <v>176</v>
-      </c>
       <c r="J169" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
@@ -8823,10 +8894,10 @@
     </row>
     <row r="170" spans="1:26" ht="75" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="40"/>
-      <c r="C170" s="40"/>
-      <c r="D170" s="40"/>
-      <c r="E170" s="40"/>
+      <c r="B170" s="47"/>
+      <c r="C170" s="47"/>
+      <c r="D170" s="47"/>
+      <c r="E170" s="47"/>
       <c r="F170" s="17">
         <v>5</v>
       </c>
@@ -8834,13 +8905,13 @@
         <v>28</v>
       </c>
       <c r="H170" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I170" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
@@ -8861,10 +8932,10 @@
     </row>
     <row r="171" spans="1:26" ht="51.75" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="40"/>
-      <c r="C171" s="40"/>
-      <c r="D171" s="40"/>
-      <c r="E171" s="40"/>
+      <c r="B171" s="47"/>
+      <c r="C171" s="47"/>
+      <c r="D171" s="47"/>
+      <c r="E171" s="47"/>
       <c r="F171" s="17">
         <v>6</v>
       </c>
@@ -8872,13 +8943,13 @@
         <v>28</v>
       </c>
       <c r="H171" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="I171" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="I171" s="28" t="s">
-        <v>176</v>
-      </c>
       <c r="J171" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
@@ -8899,24 +8970,24 @@
     </row>
     <row r="172" spans="1:26" ht="45.75" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="39"/>
-      <c r="C172" s="39"/>
-      <c r="D172" s="39"/>
-      <c r="E172" s="39"/>
+      <c r="B172" s="48"/>
+      <c r="C172" s="48"/>
+      <c r="D172" s="48"/>
+      <c r="E172" s="48"/>
       <c r="F172" s="17">
         <v>7</v>
       </c>
       <c r="G172" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H172" s="28" t="s">
         <v>13</v>
       </c>
       <c r="I172" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J172" s="28" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
@@ -8966,31 +9037,31 @@
     <row r="174" spans="1:26" ht="210" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="31" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C174" s="31" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D174" s="31" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F174" s="17">
         <v>1</v>
       </c>
       <c r="G174" s="28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H174" s="28" t="s">
         <v>13</v>
       </c>
       <c r="I174" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J174" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
@@ -9039,32 +9110,32 @@
     </row>
     <row r="176" spans="1:26" ht="56.25" customHeight="1">
       <c r="A176" s="1"/>
-      <c r="B176" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="C176" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="D176" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="E176" s="38" t="s">
-        <v>309</v>
+      <c r="B176" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="C176" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="D176" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="E176" s="46" t="s">
+        <v>305</v>
       </c>
       <c r="F176" s="17">
         <v>1</v>
       </c>
       <c r="G176" s="12" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H176" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="I176" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="J176" s="12" t="s">
         <v>311</v>
-      </c>
-      <c r="I176" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="J176" s="12" t="s">
-        <v>315</v>
       </c>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
@@ -9085,24 +9156,24 @@
     </row>
     <row r="177" spans="1:26" ht="66" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="39"/>
-      <c r="C177" s="39"/>
-      <c r="D177" s="39"/>
-      <c r="E177" s="39"/>
+      <c r="B177" s="48"/>
+      <c r="C177" s="48"/>
+      <c r="D177" s="48"/>
+      <c r="E177" s="48"/>
       <c r="F177" s="17">
         <v>2</v>
       </c>
       <c r="G177" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H177" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="I177" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="J177" s="12" t="s">
         <v>310</v>
-      </c>
-      <c r="H177" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I177" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="J177" s="12" t="s">
-        <v>314</v>
       </c>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
@@ -9123,10 +9194,10 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="B101:B107"/>
+    <mergeCell ref="C101:C107"/>
+    <mergeCell ref="D101:D107"/>
+    <mergeCell ref="E101:E107"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="D67:D68"/>
@@ -9143,10 +9214,6 @@
     <mergeCell ref="C88:C89"/>
     <mergeCell ref="D88:D89"/>
     <mergeCell ref="E88:E89"/>
-    <mergeCell ref="B101:B107"/>
-    <mergeCell ref="C101:C107"/>
-    <mergeCell ref="D101:D107"/>
-    <mergeCell ref="E101:E107"/>
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="B70:B80"/>
     <mergeCell ref="E70:E80"/>
@@ -9168,6 +9235,9 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="D27:D29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B62:B63"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="C6:C8"/>
@@ -9177,9 +9247,6 @@
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B62:B63"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="C53:C55"/>
     <mergeCell ref="D53:D55"/>
@@ -9233,6 +9300,10 @@
     <mergeCell ref="C145:C150"/>
     <mergeCell ref="D145:D150"/>
     <mergeCell ref="E145:E150"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
     <mergeCell ref="B153:B155"/>
     <mergeCell ref="C153:C155"/>
     <mergeCell ref="D153:D155"/>

--- a/Documentacion/Plantilla Historias Usuario - Oficina de Proyectos de Informatica.xlsx
+++ b/Documentacion/Plantilla Historias Usuario - Oficina de Proyectos de Informatica.xlsx
@@ -1995,7 +1995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2113,13 +2113,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2131,7 +2132,58 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2146,60 +2198,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2545,8 +2551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:E97"/>
+    <sheetView tabSelected="1" topLeftCell="G174" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J174" sqref="J174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2663,18 +2669,18 @@
     <row r="4" spans="1:26">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="57" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2740,16 +2746,16 @@
     </row>
     <row r="6" spans="1:26" ht="58.15" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="47" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="17">
@@ -2786,10 +2792,10 @@
     </row>
     <row r="7" spans="1:26" ht="57" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="17">
         <v>2</v>
       </c>
@@ -2824,10 +2830,10 @@
     </row>
     <row r="8" spans="1:26" ht="131.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="17">
         <v>3</v>
       </c>
@@ -2890,16 +2896,16 @@
     </row>
     <row r="10" spans="1:26" ht="45">
       <c r="A10" s="1"/>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="69" t="s">
         <v>317</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="59" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="5">
@@ -2936,10 +2942,10 @@
     </row>
     <row r="11" spans="1:26" ht="52.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="44"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="5">
         <v>2</v>
       </c>
@@ -2974,10 +2980,10 @@
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="10">
         <v>3</v>
       </c>
@@ -3012,10 +3018,10 @@
     </row>
     <row r="13" spans="1:26" ht="49.9" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="45"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="10">
         <v>4</v>
       </c>
@@ -3078,16 +3084,16 @@
     </row>
     <row r="15" spans="1:26" ht="111" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="59" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="5">
@@ -3124,10 +3130,10 @@
     </row>
     <row r="16" spans="1:26" ht="45">
       <c r="A16" s="1"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="44"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="10">
         <v>2</v>
       </c>
@@ -3162,10 +3168,10 @@
     </row>
     <row r="17" spans="1:26" ht="111" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="44"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="10">
         <v>3</v>
       </c>
@@ -3200,10 +3206,10 @@
     </row>
     <row r="18" spans="1:26" ht="55.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="10">
         <v>4</v>
       </c>
@@ -3238,10 +3244,10 @@
     </row>
     <row r="19" spans="1:26" ht="105.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="44"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="10">
         <v>5</v>
       </c>
@@ -3276,10 +3282,10 @@
     </row>
     <row r="20" spans="1:26" ht="45">
       <c r="A20" s="1"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="45"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="10">
         <v>6</v>
       </c>
@@ -3380,16 +3386,16 @@
     </row>
     <row r="23" spans="1:26" ht="150">
       <c r="A23" s="1"/>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="59" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="10">
@@ -3426,10 +3432,10 @@
     </row>
     <row r="24" spans="1:26" ht="149.65" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="44"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="10">
         <v>2</v>
       </c>
@@ -3464,10 +3470,10 @@
     </row>
     <row r="25" spans="1:26" ht="135.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="45"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="10">
         <v>3</v>
       </c>
@@ -3530,16 +3536,16 @@
     </row>
     <row r="27" spans="1:26" ht="44.25" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="47" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="17">
@@ -3576,10 +3582,10 @@
     </row>
     <row r="28" spans="1:26" ht="45">
       <c r="A28" s="1"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="17">
         <v>2</v>
       </c>
@@ -3614,10 +3620,10 @@
     </row>
     <row r="29" spans="1:26" ht="36" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="17">
         <v>3</v>
       </c>
@@ -3680,16 +3686,16 @@
     </row>
     <row r="31" spans="1:26" ht="58.15" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="52" t="s">
         <v>56</v>
       </c>
       <c r="F31" s="17">
@@ -3726,10 +3732,10 @@
     </row>
     <row r="32" spans="1:26" ht="57" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="17">
         <v>2</v>
       </c>
@@ -3942,16 +3948,16 @@
     </row>
     <row r="38" spans="1:26" ht="77.45" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="46" t="s">
+      <c r="E38" s="47" t="s">
         <v>246</v>
       </c>
       <c r="F38" s="17">
@@ -3988,10 +3994,10 @@
     </row>
     <row r="39" spans="1:26" ht="180" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="17">
         <v>2</v>
       </c>
@@ -4026,7 +4032,7 @@
     </row>
     <row r="40" spans="1:26" ht="189.6" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="48"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
@@ -4088,18 +4094,18 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" s="71" customFormat="1" ht="58.15" customHeight="1">
+    <row r="42" spans="1:26" s="43" customFormat="1" ht="58.15" customHeight="1">
       <c r="A42" s="42"/>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D42" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="72" t="s">
         <v>77</v>
       </c>
       <c r="F42" s="40">
@@ -4134,12 +4140,12 @@
       <c r="Y42" s="42"/>
       <c r="Z42" s="42"/>
     </row>
-    <row r="43" spans="1:26" s="71" customFormat="1" ht="57" customHeight="1">
+    <row r="43" spans="1:26" s="43" customFormat="1" ht="57" customHeight="1">
       <c r="A43" s="42"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
       <c r="F43" s="40">
         <v>2</v>
       </c>
@@ -4500,16 +4506,16 @@
     </row>
     <row r="53" spans="1:26" ht="58.15" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="50" t="s">
+      <c r="E53" s="70" t="s">
         <v>92</v>
       </c>
       <c r="F53" s="17">
@@ -4546,10 +4552,10 @@
     </row>
     <row r="54" spans="1:26" ht="58.15" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="51"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="71"/>
       <c r="F54" s="17">
         <v>2</v>
       </c>
@@ -4584,10 +4590,10 @@
     </row>
     <row r="55" spans="1:26" ht="58.15" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="51"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="71"/>
       <c r="F55" s="17">
         <v>3</v>
       </c>
@@ -4836,16 +4842,16 @@
     </row>
     <row r="62" spans="1:26" ht="48" customHeight="1">
       <c r="A62" s="1"/>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="46" t="s">
+      <c r="C62" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="46" t="s">
+      <c r="D62" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="E62" s="46" t="s">
+      <c r="E62" s="47" t="s">
         <v>107</v>
       </c>
       <c r="F62" s="17">
@@ -4882,10 +4888,10 @@
     </row>
     <row r="63" spans="1:26" ht="53.25" customHeight="1">
       <c r="A63" s="1"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
       <c r="F63" s="17">
         <v>2</v>
       </c>
@@ -5022,16 +5028,16 @@
     </row>
     <row r="67" spans="1:26" ht="63" customHeight="1">
       <c r="A67" s="1"/>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="46" t="s">
+      <c r="D67" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="E67" s="46" t="s">
+      <c r="E67" s="47" t="s">
         <v>131</v>
       </c>
       <c r="F67" s="17">
@@ -5068,10 +5074,10 @@
     </row>
     <row r="68" spans="1:26" ht="50.25" customHeight="1">
       <c r="A68" s="1"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
       <c r="F68" s="17">
         <v>2</v>
       </c>
@@ -5662,16 +5668,16 @@
     </row>
     <row r="84" spans="1:26" ht="46.5" customHeight="1">
       <c r="A84" s="1"/>
-      <c r="B84" s="73" t="s">
+      <c r="B84" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="73" t="s">
+      <c r="C84" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="73" t="s">
+      <c r="D84" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="E84" s="73" t="s">
+      <c r="E84" s="54" t="s">
         <v>49</v>
       </c>
       <c r="F84" s="17">
@@ -5708,10 +5714,10 @@
     </row>
     <row r="85" spans="1:26" ht="45">
       <c r="A85" s="1"/>
-      <c r="B85" s="74"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="74"/>
-      <c r="E85" s="74"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
       <c r="F85" s="17">
         <v>2</v>
       </c>
@@ -5746,10 +5752,10 @@
     </row>
     <row r="86" spans="1:26" ht="46.9" customHeight="1">
       <c r="A86" s="1"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="74"/>
-      <c r="E86" s="74"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
       <c r="F86" s="17">
         <v>3</v>
       </c>
@@ -5812,16 +5818,16 @@
     </row>
     <row r="88" spans="1:26" ht="58.15" customHeight="1">
       <c r="A88" s="1"/>
-      <c r="B88" s="67" t="s">
+      <c r="B88" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="C88" s="67" t="s">
+      <c r="C88" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="67" t="s">
+      <c r="D88" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="E88" s="67" t="s">
+      <c r="E88" s="52" t="s">
         <v>166</v>
       </c>
       <c r="F88" s="17">
@@ -5858,10 +5864,10 @@
     </row>
     <row r="89" spans="1:26" ht="57" customHeight="1">
       <c r="A89" s="1"/>
-      <c r="B89" s="68"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="68"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
       <c r="F89" s="17">
         <v>2</v>
       </c>
@@ -5924,16 +5930,16 @@
     </row>
     <row r="91" spans="1:26" ht="111.75" customHeight="1">
       <c r="A91" s="1"/>
-      <c r="B91" s="46" t="s">
+      <c r="B91" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="C91" s="46" t="s">
+      <c r="C91" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="46" t="s">
+      <c r="D91" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="E91" s="46" t="s">
+      <c r="E91" s="47" t="s">
         <v>169</v>
       </c>
       <c r="F91" s="17">
@@ -5948,7 +5954,7 @@
       <c r="I91" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="J91" s="12" t="s">
+      <c r="J91" s="76" t="s">
         <v>240</v>
       </c>
       <c r="K91" s="1"/>
@@ -5970,10 +5976,10 @@
     </row>
     <row r="92" spans="1:26" ht="51" customHeight="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="47"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
       <c r="F92" s="17">
         <v>2</v>
       </c>
@@ -6008,10 +6014,10 @@
     </row>
     <row r="93" spans="1:26" ht="93.6" customHeight="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="47"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
       <c r="F93" s="17">
         <v>3</v>
       </c>
@@ -6046,10 +6052,10 @@
     </row>
     <row r="94" spans="1:26" ht="45" customHeight="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="47"/>
-      <c r="C94" s="47"/>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
       <c r="F94" s="17">
         <v>4</v>
       </c>
@@ -6084,10 +6090,10 @@
     </row>
     <row r="95" spans="1:26" ht="89.45" customHeight="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="47"/>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
       <c r="F95" s="17">
         <v>5</v>
       </c>
@@ -6122,10 +6128,10 @@
     </row>
     <row r="96" spans="1:26" ht="53.25" customHeight="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="47"/>
-      <c r="C96" s="47"/>
-      <c r="D96" s="47"/>
-      <c r="E96" s="47"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
       <c r="F96" s="17">
         <v>6</v>
       </c>
@@ -6160,10 +6166,10 @@
     </row>
     <row r="97" spans="1:26" ht="39" customHeight="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="48"/>
+      <c r="B97" s="49"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="49"/>
       <c r="F97" s="17">
         <v>7</v>
       </c>
@@ -6250,7 +6256,7 @@
       <c r="I99" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="J99" s="12" t="s">
+      <c r="J99" s="75" t="s">
         <v>243</v>
       </c>
       <c r="K99" s="1"/>
@@ -6300,16 +6306,16 @@
     </row>
     <row r="101" spans="1:26" ht="123" customHeight="1">
       <c r="A101" s="1"/>
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="D101" s="43" t="s">
+      <c r="D101" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="E101" s="43" t="s">
+      <c r="E101" s="44" t="s">
         <v>245</v>
       </c>
       <c r="F101" s="17">
@@ -6346,10 +6352,10 @@
     </row>
     <row r="102" spans="1:26" ht="60">
       <c r="A102" s="1"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="69"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
       <c r="F102" s="17">
         <v>2</v>
       </c>
@@ -6384,10 +6390,10 @@
     </row>
     <row r="103" spans="1:26" ht="93.6" customHeight="1">
       <c r="A103" s="1"/>
-      <c r="B103" s="69"/>
-      <c r="C103" s="69"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="69"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
       <c r="F103" s="17">
         <v>3</v>
       </c>
@@ -6422,10 +6428,10 @@
     </row>
     <row r="104" spans="1:26" ht="60">
       <c r="A104" s="1"/>
-      <c r="B104" s="69"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="69"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
       <c r="F104" s="17">
         <v>4</v>
       </c>
@@ -6460,10 +6466,10 @@
     </row>
     <row r="105" spans="1:26" ht="75">
       <c r="A105" s="1"/>
-      <c r="B105" s="69"/>
-      <c r="C105" s="69"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="69"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
       <c r="F105" s="17">
         <v>5</v>
       </c>
@@ -6498,10 +6504,10 @@
     </row>
     <row r="106" spans="1:26" ht="60">
       <c r="A106" s="1"/>
-      <c r="B106" s="69"/>
-      <c r="C106" s="69"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="69"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
       <c r="F106" s="17">
         <v>6</v>
       </c>
@@ -6536,10 +6542,10 @@
     </row>
     <row r="107" spans="1:26" ht="48.6" customHeight="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="70"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="70"/>
+      <c r="B107" s="46"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="46"/>
       <c r="F107" s="17">
         <v>7</v>
       </c>
@@ -6676,16 +6682,16 @@
     </row>
     <row r="111" spans="1:26" ht="47.25" customHeight="1">
       <c r="A111" s="1"/>
-      <c r="B111" s="46" t="s">
+      <c r="B111" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="C111" s="46" t="s">
+      <c r="C111" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="D111" s="46" t="s">
+      <c r="D111" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E111" s="46" t="s">
+      <c r="E111" s="47" t="s">
         <v>58</v>
       </c>
       <c r="F111" s="17">
@@ -6722,10 +6728,10 @@
     </row>
     <row r="112" spans="1:26" ht="56.25" customHeight="1">
       <c r="A112" s="1"/>
-      <c r="B112" s="47"/>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="48"/>
       <c r="F112" s="17">
         <v>2</v>
       </c>
@@ -6760,10 +6766,10 @@
     </row>
     <row r="113" spans="1:26" ht="72" customHeight="1">
       <c r="A113" s="1"/>
-      <c r="B113" s="48"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="48"/>
-      <c r="E113" s="48"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="49"/>
       <c r="F113" s="17">
         <v>3</v>
       </c>
@@ -6826,16 +6832,16 @@
     </row>
     <row r="115" spans="1:26" ht="63" customHeight="1">
       <c r="A115" s="1"/>
-      <c r="B115" s="46" t="s">
+      <c r="B115" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="C115" s="46" t="s">
+      <c r="C115" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="D115" s="46" t="s">
+      <c r="D115" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="E115" s="46" t="s">
+      <c r="E115" s="47" t="s">
         <v>251</v>
       </c>
       <c r="F115" s="17">
@@ -6872,10 +6878,10 @@
     </row>
     <row r="116" spans="1:26" ht="50.25" customHeight="1">
       <c r="A116" s="1"/>
-      <c r="B116" s="47"/>
-      <c r="C116" s="47"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="47"/>
+      <c r="B116" s="48"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="48"/>
       <c r="F116" s="17">
         <v>2</v>
       </c>
@@ -6938,16 +6944,16 @@
     </row>
     <row r="118" spans="1:26" ht="47.25" customHeight="1">
       <c r="A118" s="1"/>
-      <c r="B118" s="46" t="s">
+      <c r="B118" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="C118" s="46" t="s">
+      <c r="C118" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="D118" s="46" t="s">
+      <c r="D118" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="E118" s="46" t="s">
+      <c r="E118" s="47" t="s">
         <v>257</v>
       </c>
       <c r="F118" s="17">
@@ -6984,10 +6990,10 @@
     </row>
     <row r="119" spans="1:26" ht="46.5" customHeight="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="47"/>
-      <c r="C119" s="47"/>
-      <c r="D119" s="47"/>
-      <c r="E119" s="47"/>
+      <c r="B119" s="48"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="48"/>
+      <c r="E119" s="48"/>
       <c r="F119" s="17">
         <v>2</v>
       </c>
@@ -7050,16 +7056,16 @@
     </row>
     <row r="121" spans="1:26" ht="47.25" customHeight="1">
       <c r="A121" s="1"/>
-      <c r="B121" s="46" t="s">
+      <c r="B121" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="C121" s="46" t="s">
+      <c r="C121" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="D121" s="46" t="s">
+      <c r="D121" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E121" s="46" t="s">
+      <c r="E121" s="47" t="s">
         <v>58</v>
       </c>
       <c r="F121" s="17">
@@ -7096,10 +7102,10 @@
     </row>
     <row r="122" spans="1:26" ht="56.25" customHeight="1">
       <c r="A122" s="1"/>
-      <c r="B122" s="47"/>
-      <c r="C122" s="47"/>
-      <c r="D122" s="47"/>
-      <c r="E122" s="47"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="48"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
       <c r="F122" s="17">
         <v>2</v>
       </c>
@@ -7134,10 +7140,10 @@
     </row>
     <row r="123" spans="1:26" ht="77.25" customHeight="1">
       <c r="A123" s="1"/>
-      <c r="B123" s="48"/>
-      <c r="C123" s="48"/>
-      <c r="D123" s="48"/>
-      <c r="E123" s="48"/>
+      <c r="B123" s="49"/>
+      <c r="C123" s="49"/>
+      <c r="D123" s="49"/>
+      <c r="E123" s="49"/>
       <c r="F123" s="17">
         <v>3</v>
       </c>
@@ -7200,16 +7206,16 @@
     </row>
     <row r="125" spans="1:26" ht="47.25" customHeight="1">
       <c r="A125" s="1"/>
-      <c r="B125" s="46" t="s">
+      <c r="B125" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="C125" s="46" t="s">
+      <c r="C125" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="D125" s="46" t="s">
+      <c r="D125" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="E125" s="46" t="s">
+      <c r="E125" s="47" t="s">
         <v>257</v>
       </c>
       <c r="F125" s="17">
@@ -7246,10 +7252,10 @@
     </row>
     <row r="126" spans="1:26" ht="46.5" customHeight="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="47"/>
-      <c r="C126" s="47"/>
-      <c r="D126" s="47"/>
-      <c r="E126" s="47"/>
+      <c r="B126" s="48"/>
+      <c r="C126" s="48"/>
+      <c r="D126" s="48"/>
+      <c r="E126" s="48"/>
       <c r="F126" s="17">
         <v>2</v>
       </c>
@@ -7386,16 +7392,16 @@
     </row>
     <row r="130" spans="1:26" ht="91.5" customHeight="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="43" t="s">
+      <c r="B130" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="C130" s="49" t="s">
+      <c r="C130" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="D130" s="43" t="s">
+      <c r="D130" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="E130" s="43" t="s">
+      <c r="E130" s="44" t="s">
         <v>269</v>
       </c>
       <c r="F130" s="10">
@@ -7432,10 +7438,10 @@
     </row>
     <row r="131" spans="1:26" ht="60.75" customHeight="1">
       <c r="A131" s="1"/>
-      <c r="B131" s="44"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="44"/>
+      <c r="B131" s="57"/>
+      <c r="C131" s="57"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="57"/>
       <c r="F131" s="10">
         <v>2</v>
       </c>
@@ -7610,16 +7616,16 @@
     </row>
     <row r="136" spans="1:26" ht="48" customHeight="1">
       <c r="A136" s="1"/>
-      <c r="B136" s="46" t="s">
+      <c r="B136" s="47" t="s">
         <v>280</v>
       </c>
-      <c r="C136" s="46" t="s">
+      <c r="C136" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="D136" s="46" t="s">
+      <c r="D136" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="E136" s="46" t="s">
+      <c r="E136" s="47" t="s">
         <v>107</v>
       </c>
       <c r="F136" s="17">
@@ -7656,10 +7662,10 @@
     </row>
     <row r="137" spans="1:26" ht="53.25" customHeight="1">
       <c r="A137" s="1"/>
-      <c r="B137" s="47"/>
-      <c r="C137" s="47"/>
-      <c r="D137" s="47"/>
-      <c r="E137" s="47"/>
+      <c r="B137" s="48"/>
+      <c r="C137" s="48"/>
+      <c r="D137" s="48"/>
+      <c r="E137" s="48"/>
       <c r="F137" s="17">
         <v>2</v>
       </c>
@@ -7796,16 +7802,16 @@
     </row>
     <row r="141" spans="1:26" ht="47.25" customHeight="1">
       <c r="A141" s="1"/>
-      <c r="B141" s="46" t="s">
+      <c r="B141" s="47" t="s">
         <v>289</v>
       </c>
-      <c r="C141" s="46" t="s">
+      <c r="C141" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="D141" s="46" t="s">
+      <c r="D141" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E141" s="46" t="s">
+      <c r="E141" s="47" t="s">
         <v>58</v>
       </c>
       <c r="F141" s="17">
@@ -7842,10 +7848,10 @@
     </row>
     <row r="142" spans="1:26" ht="56.25" customHeight="1">
       <c r="A142" s="1"/>
-      <c r="B142" s="47"/>
-      <c r="C142" s="47"/>
-      <c r="D142" s="47"/>
-      <c r="E142" s="47"/>
+      <c r="B142" s="48"/>
+      <c r="C142" s="48"/>
+      <c r="D142" s="48"/>
+      <c r="E142" s="48"/>
       <c r="F142" s="17">
         <v>2</v>
       </c>
@@ -7880,10 +7886,10 @@
     </row>
     <row r="143" spans="1:26" ht="96" customHeight="1">
       <c r="A143" s="1"/>
-      <c r="B143" s="48"/>
-      <c r="C143" s="48"/>
-      <c r="D143" s="48"/>
-      <c r="E143" s="48"/>
+      <c r="B143" s="49"/>
+      <c r="C143" s="49"/>
+      <c r="D143" s="49"/>
+      <c r="E143" s="49"/>
       <c r="F143" s="17">
         <v>3</v>
       </c>
@@ -7946,16 +7952,16 @@
     </row>
     <row r="145" spans="1:26" ht="111" customHeight="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="43" t="s">
+      <c r="B145" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="C145" s="49" t="s">
+      <c r="C145" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="D145" s="49" t="s">
+      <c r="D145" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E145" s="43" t="s">
+      <c r="E145" s="44" t="s">
         <v>292</v>
       </c>
       <c r="F145" s="10">
@@ -7992,10 +7998,10 @@
     </row>
     <row r="146" spans="1:26" ht="45">
       <c r="A146" s="1"/>
-      <c r="B146" s="44"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="44"/>
-      <c r="E146" s="44"/>
+      <c r="B146" s="57"/>
+      <c r="C146" s="57"/>
+      <c r="D146" s="57"/>
+      <c r="E146" s="57"/>
       <c r="F146" s="10">
         <v>2</v>
       </c>
@@ -8030,10 +8036,10 @@
     </row>
     <row r="147" spans="1:26" ht="111" customHeight="1">
       <c r="A147" s="1"/>
-      <c r="B147" s="44"/>
-      <c r="C147" s="44"/>
-      <c r="D147" s="44"/>
-      <c r="E147" s="44"/>
+      <c r="B147" s="57"/>
+      <c r="C147" s="57"/>
+      <c r="D147" s="57"/>
+      <c r="E147" s="57"/>
       <c r="F147" s="10">
         <v>3</v>
       </c>
@@ -8068,10 +8074,10 @@
     </row>
     <row r="148" spans="1:26" ht="55.5" customHeight="1">
       <c r="A148" s="1"/>
-      <c r="B148" s="44"/>
-      <c r="C148" s="44"/>
-      <c r="D148" s="44"/>
-      <c r="E148" s="44"/>
+      <c r="B148" s="57"/>
+      <c r="C148" s="57"/>
+      <c r="D148" s="57"/>
+      <c r="E148" s="57"/>
       <c r="F148" s="10">
         <v>4</v>
       </c>
@@ -8106,10 +8112,10 @@
     </row>
     <row r="149" spans="1:26" ht="105.75" customHeight="1">
       <c r="A149" s="1"/>
-      <c r="B149" s="44"/>
-      <c r="C149" s="44"/>
-      <c r="D149" s="44"/>
-      <c r="E149" s="44"/>
+      <c r="B149" s="57"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="57"/>
+      <c r="E149" s="57"/>
       <c r="F149" s="10">
         <v>5</v>
       </c>
@@ -8144,10 +8150,10 @@
     </row>
     <row r="150" spans="1:26" ht="45">
       <c r="A150" s="1"/>
-      <c r="B150" s="45"/>
-      <c r="C150" s="45"/>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
+      <c r="B150" s="58"/>
+      <c r="C150" s="58"/>
+      <c r="D150" s="58"/>
+      <c r="E150" s="58"/>
       <c r="F150" s="10">
         <v>6</v>
       </c>
@@ -8248,16 +8254,16 @@
     </row>
     <row r="153" spans="1:26" ht="135" customHeight="1">
       <c r="A153" s="1"/>
-      <c r="B153" s="43" t="s">
+      <c r="B153" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="C153" s="46" t="s">
+      <c r="C153" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="D153" s="49" t="s">
+      <c r="D153" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="E153" s="49" t="s">
+      <c r="E153" s="59" t="s">
         <v>35</v>
       </c>
       <c r="F153" s="10">
@@ -8294,10 +8300,10 @@
     </row>
     <row r="154" spans="1:26" ht="149.65" customHeight="1">
       <c r="A154" s="1"/>
-      <c r="B154" s="44"/>
-      <c r="C154" s="47"/>
-      <c r="D154" s="44"/>
-      <c r="E154" s="44"/>
+      <c r="B154" s="57"/>
+      <c r="C154" s="48"/>
+      <c r="D154" s="57"/>
+      <c r="E154" s="57"/>
       <c r="F154" s="10">
         <v>2</v>
       </c>
@@ -8332,10 +8338,10 @@
     </row>
     <row r="155" spans="1:26" ht="135.75" customHeight="1">
       <c r="A155" s="1"/>
-      <c r="B155" s="45"/>
-      <c r="C155" s="48"/>
-      <c r="D155" s="45"/>
-      <c r="E155" s="45"/>
+      <c r="B155" s="58"/>
+      <c r="C155" s="49"/>
+      <c r="D155" s="58"/>
+      <c r="E155" s="58"/>
       <c r="F155" s="10">
         <v>3</v>
       </c>
@@ -8398,16 +8404,16 @@
     </row>
     <row r="157" spans="1:26" ht="90.75" customHeight="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="46" t="s">
+      <c r="B157" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="C157" s="46" t="s">
+      <c r="C157" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="D157" s="46" t="s">
+      <c r="D157" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="E157" s="46" t="s">
+      <c r="E157" s="47" t="s">
         <v>82</v>
       </c>
       <c r="F157" s="17">
@@ -8444,10 +8450,10 @@
     </row>
     <row r="158" spans="1:26" ht="57" customHeight="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="47"/>
-      <c r="C158" s="47"/>
-      <c r="D158" s="47"/>
-      <c r="E158" s="47"/>
+      <c r="B158" s="48"/>
+      <c r="C158" s="48"/>
+      <c r="D158" s="48"/>
+      <c r="E158" s="48"/>
       <c r="F158" s="17">
         <v>2</v>
       </c>
@@ -8482,10 +8488,10 @@
     </row>
     <row r="159" spans="1:26" ht="57" customHeight="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="48"/>
-      <c r="C159" s="48"/>
-      <c r="D159" s="48"/>
-      <c r="E159" s="48"/>
+      <c r="B159" s="49"/>
+      <c r="C159" s="49"/>
+      <c r="D159" s="49"/>
+      <c r="E159" s="49"/>
       <c r="F159" s="17">
         <v>3</v>
       </c>
@@ -8625,7 +8631,7 @@
       <c r="B163" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="C163" s="46" t="s">
+      <c r="C163" s="47" t="s">
         <v>293</v>
       </c>
       <c r="D163" s="29" t="s">
@@ -8669,7 +8675,7 @@
     <row r="164" spans="1:26" ht="95.25" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="30"/>
-      <c r="C164" s="47"/>
+      <c r="C164" s="48"/>
       <c r="D164" s="30"/>
       <c r="E164" s="30"/>
       <c r="F164" s="17">
@@ -8734,16 +8740,16 @@
     </row>
     <row r="166" spans="1:26" ht="75.75" customHeight="1">
       <c r="A166" s="1"/>
-      <c r="B166" s="46" t="s">
+      <c r="B166" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="C166" s="46" t="s">
+      <c r="C166" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="D166" s="46" t="s">
+      <c r="D166" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="E166" s="46" t="s">
+      <c r="E166" s="47" t="s">
         <v>169</v>
       </c>
       <c r="F166" s="17">
@@ -8780,10 +8786,10 @@
     </row>
     <row r="167" spans="1:26" ht="44.25" customHeight="1">
       <c r="A167" s="1"/>
-      <c r="B167" s="47"/>
-      <c r="C167" s="47"/>
-      <c r="D167" s="47"/>
-      <c r="E167" s="47"/>
+      <c r="B167" s="48"/>
+      <c r="C167" s="48"/>
+      <c r="D167" s="48"/>
+      <c r="E167" s="48"/>
       <c r="F167" s="17">
         <v>2</v>
       </c>
@@ -8818,10 +8824,10 @@
     </row>
     <row r="168" spans="1:26" ht="79.5" customHeight="1">
       <c r="A168" s="1"/>
-      <c r="B168" s="47"/>
-      <c r="C168" s="47"/>
-      <c r="D168" s="47"/>
-      <c r="E168" s="47"/>
+      <c r="B168" s="48"/>
+      <c r="C168" s="48"/>
+      <c r="D168" s="48"/>
+      <c r="E168" s="48"/>
       <c r="F168" s="17">
         <v>3</v>
       </c>
@@ -8856,10 +8862,10 @@
     </row>
     <row r="169" spans="1:26" ht="46.5" customHeight="1">
       <c r="A169" s="1"/>
-      <c r="B169" s="47"/>
-      <c r="C169" s="47"/>
-      <c r="D169" s="47"/>
-      <c r="E169" s="47"/>
+      <c r="B169" s="48"/>
+      <c r="C169" s="48"/>
+      <c r="D169" s="48"/>
+      <c r="E169" s="48"/>
       <c r="F169" s="17">
         <v>4</v>
       </c>
@@ -8894,10 +8900,10 @@
     </row>
     <row r="170" spans="1:26" ht="75" customHeight="1">
       <c r="A170" s="1"/>
-      <c r="B170" s="47"/>
-      <c r="C170" s="47"/>
-      <c r="D170" s="47"/>
-      <c r="E170" s="47"/>
+      <c r="B170" s="48"/>
+      <c r="C170" s="48"/>
+      <c r="D170" s="48"/>
+      <c r="E170" s="48"/>
       <c r="F170" s="17">
         <v>5</v>
       </c>
@@ -8932,10 +8938,10 @@
     </row>
     <row r="171" spans="1:26" ht="51.75" customHeight="1">
       <c r="A171" s="1"/>
-      <c r="B171" s="47"/>
-      <c r="C171" s="47"/>
-      <c r="D171" s="47"/>
-      <c r="E171" s="47"/>
+      <c r="B171" s="48"/>
+      <c r="C171" s="48"/>
+      <c r="D171" s="48"/>
+      <c r="E171" s="48"/>
       <c r="F171" s="17">
         <v>6</v>
       </c>
@@ -8970,10 +8976,10 @@
     </row>
     <row r="172" spans="1:26" ht="45.75" customHeight="1">
       <c r="A172" s="1"/>
-      <c r="B172" s="48"/>
-      <c r="C172" s="48"/>
-      <c r="D172" s="48"/>
-      <c r="E172" s="48"/>
+      <c r="B172" s="49"/>
+      <c r="C172" s="49"/>
+      <c r="D172" s="49"/>
+      <c r="E172" s="49"/>
       <c r="F172" s="17">
         <v>7</v>
       </c>
@@ -9110,16 +9116,16 @@
     </row>
     <row r="176" spans="1:26" ht="56.25" customHeight="1">
       <c r="A176" s="1"/>
-      <c r="B176" s="46" t="s">
+      <c r="B176" s="47" t="s">
         <v>303</v>
       </c>
-      <c r="C176" s="46" t="s">
+      <c r="C176" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="D176" s="46" t="s">
+      <c r="D176" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="E176" s="46" t="s">
+      <c r="E176" s="47" t="s">
         <v>305</v>
       </c>
       <c r="F176" s="17">
@@ -9156,10 +9162,10 @@
     </row>
     <row r="177" spans="1:26" ht="66" customHeight="1">
       <c r="A177" s="1"/>
-      <c r="B177" s="48"/>
-      <c r="C177" s="48"/>
-      <c r="D177" s="48"/>
-      <c r="E177" s="48"/>
+      <c r="B177" s="49"/>
+      <c r="C177" s="49"/>
+      <c r="D177" s="49"/>
+      <c r="E177" s="49"/>
       <c r="F177" s="17">
         <v>2</v>
       </c>
@@ -9194,26 +9200,89 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="B101:B107"/>
-    <mergeCell ref="C101:C107"/>
-    <mergeCell ref="D101:D107"/>
-    <mergeCell ref="E101:E107"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E91:E97"/>
-    <mergeCell ref="D91:D97"/>
-    <mergeCell ref="C91:C97"/>
-    <mergeCell ref="B91:B97"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="D153:D155"/>
+    <mergeCell ref="E153:E155"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="D176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="E157:E159"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="B166:B172"/>
+    <mergeCell ref="C166:C172"/>
+    <mergeCell ref="D166:D172"/>
+    <mergeCell ref="E166:E172"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="E141:E143"/>
+    <mergeCell ref="B145:B150"/>
+    <mergeCell ref="C145:C150"/>
+    <mergeCell ref="D145:D150"/>
+    <mergeCell ref="E145:E150"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="D121:D123"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="D130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="B70:B80"/>
     <mergeCell ref="E70:E80"/>
@@ -9238,89 +9307,26 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B62:B63"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="D121:D123"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="D130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="D141:D143"/>
-    <mergeCell ref="E141:E143"/>
-    <mergeCell ref="B145:B150"/>
-    <mergeCell ref="C145:C150"/>
-    <mergeCell ref="D145:D150"/>
-    <mergeCell ref="E145:E150"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="D153:D155"/>
-    <mergeCell ref="E153:E155"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="D176:D177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="E157:E159"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="B166:B172"/>
-    <mergeCell ref="C166:C172"/>
-    <mergeCell ref="D166:D172"/>
-    <mergeCell ref="E166:E172"/>
+    <mergeCell ref="B101:B107"/>
+    <mergeCell ref="C101:C107"/>
+    <mergeCell ref="D101:D107"/>
+    <mergeCell ref="E101:E107"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E91:E97"/>
+    <mergeCell ref="D91:D97"/>
+    <mergeCell ref="C91:C97"/>
+    <mergeCell ref="B91:B97"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
